--- a/data/hotels_by_city/Denver/Denver_shard_202.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_202.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33456-d119937-Reviews-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Motel-6-Denver-South-South-Tech-Center.h49789.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1116 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r591685950-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>33456</t>
+  </si>
+  <si>
+    <t>119937</t>
+  </si>
+  <si>
+    <t>591685950</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Terrible, rude staff, dirty</t>
+  </si>
+  <si>
+    <t>Place is filthy, smells bad, the staff is super rude, when asked a question they pretend they don't hear you! Please pay more money and stay else where. The sink is clogged. The fan in the restroom makes a loud noise like it's dying. Horrible way to vacationMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Farhangbb, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Place is filthy, smells bad, the staff is super rude, when asked a question they pretend they don't hear you! Please pay more money and stay else where. The sink is clogged. The fan in the restroom makes a loud noise like it's dying. Horrible way to vacationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r585609401-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>585609401</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Experience!</t>
+  </si>
+  <si>
+    <t>Thank you to the incredible staff you have on hand! You all were so helpful and accommodating as we were from out of state! The facility was clean and the staff was on point! They were very kind and welcoming. My Boyfriend and I had come in town to see some friends and we would highly recommend this place to anyone looking for a nice place to stay. Although we did not explore the area as much as we had hoped to, we enjoyed our stay. The room was great, bed was very comfy and being able to do laundry on site was an added bonus for us out of towners!Thank you again, especially to...I believe her name was Celeste for going above and beyond during our stayThanks so much!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Thank you to the incredible staff you have on hand! You all were so helpful and accommodating as we were from out of state! The facility was clean and the staff was on point! They were very kind and welcoming. My Boyfriend and I had come in town to see some friends and we would highly recommend this place to anyone looking for a nice place to stay. Although we did not explore the area as much as we had hoped to, we enjoyed our stay. The room was great, bed was very comfy and being able to do laundry on site was an added bonus for us out of towners!Thank you again, especially to...I believe her name was Celeste for going above and beyond during our stayThanks so much!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r584103604-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>584103604</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Travel for work by semi and my AC went out right off i-25 N. Went to a place called Brother's BBQ where I was searching for a cheap place to stay for the night. When I came out I looked to my left and found Motel6. Cheap rates, tons of restaurants nearby, and best staff I've ever encountered even from top notch hotels. Impressed and will be back again with my family next time. Only bad part was the parking lot it needs to be redone but that's me being picky.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Travel for work by semi and my AC went out right off i-25 N. Went to a place called Brother's BBQ where I was searching for a cheap place to stay for the night. When I came out I looked to my left and found Motel6. Cheap rates, tons of restaurants nearby, and best staff I've ever encountered even from top notch hotels. Impressed and will be back again with my family next time. Only bad part was the parking lot it needs to be redone but that's me being picky.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r582780700-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>582780700</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Best Motel 6 in Denver!</t>
+  </si>
+  <si>
+    <t>I’ve been staying here for about a month now while waiting to move into a place, and the staff here always takes care of me! Nikki is the best night staff worker around, and makes sure all my needs are met! The pool is finally open, and it’s great.MoreShow less</t>
+  </si>
+  <si>
+    <t>I’ve been staying here for about a month now while waiting to move into a place, and the staff here always takes care of me! Nikki is the best night staff worker around, and makes sure all my needs are met! The pool is finally open, and it’s great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r578690236-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>578690236</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Horrible experience</t>
+  </si>
+  <si>
+    <t>The hallways stinks marijuana , the pet area is disgusting just dirt and mud, I was passing by the front desk and sounds like the boss or manager was screaming to some of the employee, and I was so annoyed by some woman goes all over the hallways nocking on the doors in the morning kicking people out asking either are you paying or u you leaving , I don’t know I would not recommend this place unless they improve this place , other than that the only good thing about this place was the front desk people friendly and some of housekeepers .MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Farhangbb, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded May 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2018</t>
+  </si>
+  <si>
+    <t>The hallways stinks marijuana , the pet area is disgusting just dirt and mud, I was passing by the front desk and sounds like the boss or manager was screaming to some of the employee, and I was so annoyed by some woman goes all over the hallways nocking on the doors in the morning kicking people out asking either are you paying or u you leaving , I don’t know I would not recommend this place unless they improve this place , other than that the only good thing about this place was the front desk people friendly and some of housekeepers .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r578086207-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>578086207</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Def recommended</t>
+  </si>
+  <si>
+    <t>From the reservation, checking to all the time to my stayed was a great experience, I been staying here a few times and sol makes my stay every time more comfortable, she speak English and Spanish perfect so for me is more convenient when she help me I def recommended to stay here :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Farhangbb, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>From the reservation, checking to all the time to my stayed was a great experience, I been staying here a few times and sol makes my stay every time more comfortable, she speak English and Spanish perfect so for me is more convenient when she help me I def recommended to stay here :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r570010373-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>570010373</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>My room was nice and clean, no problems with check in. Nikki at the front desk helped us from check in to check out with almost no effort and a big smile the whole way. Will be staying here again for sureMoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>My room was nice and clean, no problems with check in. Nikki at the front desk helped us from check in to check out with almost no effort and a big smile the whole way. Will be staying here again for sureMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r557637872-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>557637872</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Good Nights Sleep!</t>
+  </si>
+  <si>
+    <t>Clean rooms, comfortable beds, and the staff does their best to give you the very best deals possible. Brad and Sol both provided excellent customer service and did a great job of accommodating my needs and making my stay more comfortable. Motel 6 at this location is more upscale and cheaper than the surrounding areas, you get your moneys worth!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Clean rooms, comfortable beds, and the staff does their best to give you the very best deals possible. Brad and Sol both provided excellent customer service and did a great job of accommodating my needs and making my stay more comfortable. Motel 6 at this location is more upscale and cheaper than the surrounding areas, you get your moneys worth!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r557601641-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>557601641</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>Motel 6 is a Very nice and quiet spot to relax. The rooms are VERY clean. The staff is very friendly.  Ask for Brad or sol. They make the stay VERY Pleasant and fun. Brad and sol always have a smile and are always willing to help.  The motel is close to the freeway and places to eat. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Motel 6 is a Very nice and quiet spot to relax. The rooms are VERY clean. The staff is very friendly.  Ask for Brad or sol. They make the stay VERY Pleasant and fun. Brad and sol always have a smile and are always willing to help.  The motel is close to the freeway and places to eat. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r538293842-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>538293842</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at Motel 6 during the month of October 2017 while we were waiting for our new condo in Capitol Hill to be finished and we needed a affordable place to stay and we came up on Motel 6 in DTC in Greenwood Village Colorado and the rooms are very very clean and updated much more than I ever expected from a Motel 6 which the last time I stayed there was when I was a kid in Florida the staff was great and helpful and Brad at the front desk is not only very nice he's also very helpful I always was there if I needed anything and make sure that my stay was comfortable and the girls up front also that worked with Brad we're the same and they made you feel like you're more just than an overnight guest I would recommend this place to absolutely anybody because the prices were great the rooms were updated and cleaned the staff was amazing and the location is very good as wellMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at Motel 6 during the month of October 2017 while we were waiting for our new condo in Capitol Hill to be finished and we needed a affordable place to stay and we came up on Motel 6 in DTC in Greenwood Village Colorado and the rooms are very very clean and updated much more than I ever expected from a Motel 6 which the last time I stayed there was when I was a kid in Florida the staff was great and helpful and Brad at the front desk is not only very nice he's also very helpful I always was there if I needed anything and make sure that my stay was comfortable and the girls up front also that worked with Brad we're the same and they made you feel like you're more just than an overnight guest I would recommend this place to absolutely anybody because the prices were great the rooms were updated and cleaned the staff was amazing and the location is very good as wellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r518650718-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>518650718</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>They didn't leave the light on for me</t>
+  </si>
+  <si>
+    <t>Hotel seemed OK, then the power went out for almost a day before I left to go to another hotel,  Was supposed to stay there 5 nights, but stayed one before power when off at 7am and stayed off until at least 10pm when I left and went to another hotel.  The hotel refused to refund and of the money I paid for the remaining 4 nights I was there and because the power was not going to be coming on anytime soon (the work crews left) I had to pay for another hotel (so now I am paying for two hotels because one won't issue a refund for nights I couldn't stay in a pitch black hotel (that I may add had no safety lights on battery backup in the stairwells so I nearly broke my neck trying to leave).  They obviously only care about money and not their customers.  I feel like I was robbed and as such feel I have to take legal action as well as report this business to the BBB and others to set them straight.  BTW Motel 6, I demand my money back for services you didn't render as part of our agreement to pay and stay there.  I will get it from you.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>ap72denver, General Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Hotel seemed OK, then the power went out for almost a day before I left to go to another hotel,  Was supposed to stay there 5 nights, but stayed one before power when off at 7am and stayed off until at least 10pm when I left and went to another hotel.  The hotel refused to refund and of the money I paid for the remaining 4 nights I was there and because the power was not going to be coming on anytime soon (the work crews left) I had to pay for another hotel (so now I am paying for two hotels because one won't issue a refund for nights I couldn't stay in a pitch black hotel (that I may add had no safety lights on battery backup in the stairwells so I nearly broke my neck trying to leave).  They obviously only care about money and not their customers.  I feel like I was robbed and as such feel I have to take legal action as well as report this business to the BBB and others to set them straight.  BTW Motel 6, I demand my money back for services you didn't render as part of our agreement to pay and stay there.  I will get it from you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r504001758-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>504001758</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Hard to get to</t>
+  </si>
+  <si>
+    <t>It was really hard to get to the motel. I even watched as a lady tried to climb the rocks in sandals to get to the convenience store right in front of the hotel. To drive into the motel we had to go around the backside of the hotel that was next to it then cut through the small opening to get to the Motel 6. There was construction that was blocking the enterance to the lot. The room was clean and quiet the beds were comfortable. The bathroom had some black on the wall behind the door, unsure if it was mold. We just thought it was odd that every step you took in the hotel had another camera near by. Even at the front counter 2 cameras seemed to be aimed to the key pad. I thought this was odd considering the door jam in our hotel room was broken.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>It was really hard to get to the motel. I even watched as a lady tried to climb the rocks in sandals to get to the convenience store right in front of the hotel. To drive into the motel we had to go around the backside of the hotel that was next to it then cut through the small opening to get to the Motel 6. There was construction that was blocking the enterance to the lot. The room was clean and quiet the beds were comfortable. The bathroom had some black on the wall behind the door, unsure if it was mold. We just thought it was odd that every step you took in the hotel had another camera near by. Even at the front counter 2 cameras seemed to be aimed to the key pad. I thought this was odd considering the door jam in our hotel room was broken.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r488927316-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>488927316</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Great Staff, very friendly</t>
+  </si>
+  <si>
+    <t>Staff is always friendly and very helpful. I frequent the hotel for work and you can't beat the space and the price. Brad helped me last time and made sure I had everything I needed. I highly recommend them!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r482799132-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>482799132</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Amazing service!!!</t>
+  </si>
+  <si>
+    <t>Brad and Tara were absolutely incredible. They stuck helping me out with a the problems I had with my reservation and did not stop until it was finished while still taking care of all the other guests at the same time. I will definitely be staying here again for sure. Give them a raise!!! Please ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r481967605-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>481967605</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best motel in denver </t>
+  </si>
+  <si>
+    <t>Me and my husband stays here and we love it. Brad the manger is a great one and so is Larry. They are both amazing at there.  Brad thank you for your great severic and Larry thank you for being a good employee. To any one looking for a good place to enjoy your stay in denver come here. They are very friendly I didn't get a picture of Brad but this Larry The rooms are amazing Thank you so much-Brittany Brothers-</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r434609917-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>434609917</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Uncomfortable experienence</t>
+  </si>
+  <si>
+    <t>When planning a family trip, I called this location in advance of booking, to discuss the situation we had..and to find out if we should book a reservation at this place, or keep looking. We had an obligation in one city on the evening prior, and would be unable to arrive in Denver until very late, possibly not until early the next morning. We were told that if we booked a room for both days, and paid for the stay by phone, it would be no problem. I booked the reservation.The night of the trip, our even was delayed by rain, so I called the hotel again to see if I should simply cancel the reservation, because would not be able to get there until morning for sure. I was still assured there would be no problem. I received a call during the event, to speak with another employee, who I also  explained the situation to, and after a short discussion, authorized the charge for both days, after being assured the room would be waiting. We arrived at the hotel at around 8:15 to be told they had recycled the room, and nothing was available for us, in spite of our already being told multiple times there would be. We called the motel 6 corporate number, and they spoke with the manager, who then told us he would have a room available for us, would refund half of the first...When planning a family trip, I called this location in advance of booking, to discuss the situation we had..and to find out if we should book a reservation at this place, or keep looking. We had an obligation in one city on the evening prior, and would be unable to arrive in Denver until very late, possibly not until early the next morning. We were told that if we booked a room for both days, and paid for the stay by phone, it would be no problem. I booked the reservation.The night of the trip, our even was delayed by rain, so I called the hotel again to see if I should simply cancel the reservation, because would not be able to get there until morning for sure. I was still assured there would be no problem. I received a call during the event, to speak with another employee, who I also  explained the situation to, and after a short discussion, authorized the charge for both days, after being assured the room would be waiting. We arrived at the hotel at around 8:15 to be told they had recycled the room, and nothing was available for us, in spite of our already being told multiple times there would be. We called the motel 6 corporate number, and they spoke with the manager, who then told us he would have a room available for us, would refund half of the first days charge, and give u free wifi for our stay. We decided to stay, since we had already paid in advance for both days. We waited in the lobby or parking lot for two hours..and then they let us use a small single room to shower and change, because we were due at our next venue by 1 pm. It was 10:30, by this time. At 12:15 we were finally told our room was ready,as we were preparing to leave for our destination. The room had been hastily cleaned, (there was pet hair on the furniture), but we were already late. We moved our things, rushed around, and ended up late and tired at our event.,which we had to cut short, due to how tired some of our party was. This also cost me extra.. I had paid for all the admissions, and the meet and greet for our group of four, but we had to return to the hotel, after only part of the artists were finished.I missed most of one of my favorite groups performance, and I myself decided to return to the hotel right after the last group finished, and did not attend the meet and greet, nor did any of the four of us, because of extreme tiredness. We had planned to nap as soon as we arrived..but we're unable to do so, because the room we had paid for was not available until many hours later. The rest of my group was awake, when I returned, due to the noisy conditions at the hotel, with the elevator being nearby..this continued until late at night. There were parties, noisy guests, and even a fist fight in the hallway between some other guests for our entertainment. I finally slept for a few or between one and six am, then went downstairs to see ifI could get  cup of coffee. There was none available in the lobby( no surprise) and I ended up walking to a nearby convenience store and asking the employees there what was close by , because the hotel staff member "was no sure". To call this a disappointing experience would be an understatement. If you stay here..there is a sub shop across the lot from the lobby and up the stairs, a convenience store on the corner down from it, and a Star bucks on the corner of the block in the other direction. There is also a Target nearby...and the gas station convenience store people ARE helpful and friendly, unlike your hotel staff. My best advice? Book a different location, like I will in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>When planning a family trip, I called this location in advance of booking, to discuss the situation we had..and to find out if we should book a reservation at this place, or keep looking. We had an obligation in one city on the evening prior, and would be unable to arrive in Denver until very late, possibly not until early the next morning. We were told that if we booked a room for both days, and paid for the stay by phone, it would be no problem. I booked the reservation.The night of the trip, our even was delayed by rain, so I called the hotel again to see if I should simply cancel the reservation, because would not be able to get there until morning for sure. I was still assured there would be no problem. I received a call during the event, to speak with another employee, who I also  explained the situation to, and after a short discussion, authorized the charge for both days, after being assured the room would be waiting. We arrived at the hotel at around 8:15 to be told they had recycled the room, and nothing was available for us, in spite of our already being told multiple times there would be. We called the motel 6 corporate number, and they spoke with the manager, who then told us he would have a room available for us, would refund half of the first...When planning a family trip, I called this location in advance of booking, to discuss the situation we had..and to find out if we should book a reservation at this place, or keep looking. We had an obligation in one city on the evening prior, and would be unable to arrive in Denver until very late, possibly not until early the next morning. We were told that if we booked a room for both days, and paid for the stay by phone, it would be no problem. I booked the reservation.The night of the trip, our even was delayed by rain, so I called the hotel again to see if I should simply cancel the reservation, because would not be able to get there until morning for sure. I was still assured there would be no problem. I received a call during the event, to speak with another employee, who I also  explained the situation to, and after a short discussion, authorized the charge for both days, after being assured the room would be waiting. We arrived at the hotel at around 8:15 to be told they had recycled the room, and nothing was available for us, in spite of our already being told multiple times there would be. We called the motel 6 corporate number, and they spoke with the manager, who then told us he would have a room available for us, would refund half of the first days charge, and give u free wifi for our stay. We decided to stay, since we had already paid in advance for both days. We waited in the lobby or parking lot for two hours..and then they let us use a small single room to shower and change, because we were due at our next venue by 1 pm. It was 10:30, by this time. At 12:15 we were finally told our room was ready,as we were preparing to leave for our destination. The room had been hastily cleaned, (there was pet hair on the furniture), but we were already late. We moved our things, rushed around, and ended up late and tired at our event.,which we had to cut short, due to how tired some of our party was. This also cost me extra.. I had paid for all the admissions, and the meet and greet for our group of four, but we had to return to the hotel, after only part of the artists were finished.I missed most of one of my favorite groups performance, and I myself decided to return to the hotel right after the last group finished, and did not attend the meet and greet, nor did any of the four of us, because of extreme tiredness. We had planned to nap as soon as we arrived..but we're unable to do so, because the room we had paid for was not available until many hours later. The rest of my group was awake, when I returned, due to the noisy conditions at the hotel, with the elevator being nearby..this continued until late at night. There were parties, noisy guests, and even a fist fight in the hallway between some other guests for our entertainment. I finally slept for a few or between one and six am, then went downstairs to see ifI could get  cup of coffee. There was none available in the lobby( no surprise) and I ended up walking to a nearby convenience store and asking the employees there what was close by , because the hotel staff member "was no sure". To call this a disappointing experience would be an understatement. If you stay here..there is a sub shop across the lot from the lobby and up the stairs, a convenience store on the corner down from it, and a Star bucks on the corner of the block in the other direction. There is also a Target nearby...and the gas station convenience store people ARE helpful and friendly, unlike your hotel staff. My best advice? Book a different location, like I will in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r433933461-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>433933461</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>MotelSixer</t>
+  </si>
+  <si>
+    <t>Friendly staff, all of them :) Clean, Quiet, room, Very nice stay.  Room maintenance and cleanliness has been impressive in recent stays, thank you!Have Travelled extensively, coast to coast for personal, familial and business purposes, Motel 6 has always been a go to bringing comfort and reasonablLy priced accomadations everywhere I've needed time to rest.  Refreshing with money left over for breakfast slams, fuel and destinations.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded November 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2016</t>
+  </si>
+  <si>
+    <t>Friendly staff, all of them :) Clean, Quiet, room, Very nice stay.  Room maintenance and cleanliness has been impressive in recent stays, thank you!Have Travelled extensively, coast to coast for personal, familial and business purposes, Motel 6 has always been a go to bringing comfort and reasonablLy priced accomadations everywhere I've needed time to rest.  Refreshing with money left over for breakfast slams, fuel and destinations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r431629533-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>431629533</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>The front desk was very new and pleasent. Talk with the new GM, Brian and found out that the hotel was being cleaned up with new staff.  The TV's were nice flat screens. House Keeping could have been a bit better. But  by far, it was worth the value spentMoreShow less</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded October 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2016</t>
+  </si>
+  <si>
+    <t>The front desk was very new and pleasent. Talk with the new GM, Brian and found out that the hotel was being cleaned up with new staff.  The TV's were nice flat screens. House Keeping could have been a bit better. But  by far, it was worth the value spentMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r396938742-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>396938742</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Nervous after reading other reviews, but we had an overall pleasant stay</t>
+  </si>
+  <si>
+    <t>According to a lot of reviews, this is a bad place to stay. However, we had a pleasant stay. There is road construction happening right outside, but we didn't hear any noise or were bothered by it. It is located near a lot of things as well. The room is very updated and had a modern feel. Instead of carpet, they had faux wood floors (which I liked far better), was very clean, and the bed was very comfortable. The bathroom, though small, was also updated and clean. The A/C worked very well, we had a wall thermostat that controlled the unit. I would have given this motel 6 a higher rating, but it lacked some essential amenities that I feel every motel/hotel should have. They did not provide complimentary shampoos, you had to buy it, and it also did have not a hair dryer. You have to pay for wifi. And lastly, we were told the side doors remain locked after 10 P.M. yet, when we tugged on the door (forgetting it was suppose to be locked) around 11 P.M., the door opened, so security is lacking a bit.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>According to a lot of reviews, this is a bad place to stay. However, we had a pleasant stay. There is road construction happening right outside, but we didn't hear any noise or were bothered by it. It is located near a lot of things as well. The room is very updated and had a modern feel. Instead of carpet, they had faux wood floors (which I liked far better), was very clean, and the bed was very comfortable. The bathroom, though small, was also updated and clean. The A/C worked very well, we had a wall thermostat that controlled the unit. I would have given this motel 6 a higher rating, but it lacked some essential amenities that I feel every motel/hotel should have. They did not provide complimentary shampoos, you had to buy it, and it also did have not a hair dryer. You have to pay for wifi. And lastly, we were told the side doors remain locked after 10 P.M. yet, when we tugged on the door (forgetting it was suppose to be locked) around 11 P.M., the door opened, so security is lacking a bit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r396904632-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>396904632</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>We were traveling through to visit family and this was the cheapest motel in the area.  Although, there was some construction on the main road in front of it, the property was quite enough.  It was clean and perfect for stopping one night. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were traveling through to visit family and this was the cheapest motel in the area.  Although, there was some construction on the main road in front of it, the property was quite enough.  It was clean and perfect for stopping one night. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r396010227-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>396010227</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Last Resort</t>
+  </si>
+  <si>
+    <t>Very busy week in the Denver Metro area. No rooms available. Motel 6 was our last resort. Very difficult intersection made worse by the construction. Room was clean and beds were comfortable, but that's about it. The sink clogged when used and the bathroom fan made a hideous metal-on-metal sound. The internet was virtually non-existent. Never available when we needed it--like to check-in for our flight.  No computer with printer made available for printing boarding passes. Small things could make this motel more appealing. Did see somthing that I have never seen before:  a guest on an upper floor had dropped the world's longest extension cord out his window and it was plugged into the front of his truck!  That's something you don't see everywhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very busy week in the Denver Metro area. No rooms available. Motel 6 was our last resort. Very difficult intersection made worse by the construction. Room was clean and beds were comfortable, but that's about it. The sink clogged when used and the bathroom fan made a hideous metal-on-metal sound. The internet was virtually non-existent. Never available when we needed it--like to check-in for our flight.  No computer with printer made available for printing boarding passes. Small things could make this motel more appealing. Did see somthing that I have never seen before:  a guest on an upper floor had dropped the world's longest extension cord out his window and it was plugged into the front of his truck!  That's something you don't see everywhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r390190965-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>390190965</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Very nice staff and a clean motel, but...</t>
+  </si>
+  <si>
+    <t>The staff is polite and courteous and the room was clean.  But the there needs to be a major remodel at this location.  The trim around the room is split, the wood flooring has gaps.  Worst of all- when you use the toilet and attempt to clean your rear, your hand goes into the bowl.  If you are a guy- your jewels will float.  The mattresses are extremely worn.  I thought my poor hubby would be swallowed alive by the sink hole in his bed.  There is no TV station guide or info.  The fridge needs defrosting.  Not sure if that's why it made clunky noises all night  Sounded like some one was next door or coming into the room.  I am giving the staff a star, the cleanliness a star and a star for the available room service and nearby amenities.  If Motel 6 does a remodel I'll give it a 5!  I didn't complain because it was the July 4th weekend and Trump was in town and I wasn't about to go looking for another place to stay the weekend.  I paid for the steak, so I'm eating it- you have to pay for the room before you get the key.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff is polite and courteous and the room was clean.  But the there needs to be a major remodel at this location.  The trim around the room is split, the wood flooring has gaps.  Worst of all- when you use the toilet and attempt to clean your rear, your hand goes into the bowl.  If you are a guy- your jewels will float.  The mattresses are extremely worn.  I thought my poor hubby would be swallowed alive by the sink hole in his bed.  There is no TV station guide or info.  The fridge needs defrosting.  Not sure if that's why it made clunky noises all night  Sounded like some one was next door or coming into the room.  I am giving the staff a star, the cleanliness a star and a star for the available room service and nearby amenities.  If Motel 6 does a remodel I'll give it a 5!  I didn't complain because it was the July 4th weekend and Trump was in town and I wasn't about to go looking for another place to stay the weekend.  I paid for the steak, so I'm eating it- you have to pay for the room before you get the key.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r387487921-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>387487921</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Motel 6 hospitality is beyond reproach!</t>
+  </si>
+  <si>
+    <t>Great staff at the Motel 6 Denver Tech Center Greenwood Village: Ronnie, Marlene, Desaray, Oscar, Chris and Frank to name a few.  This Motel 6 located in friendly Greenwood Village Colorado is excellent value for those on a tight travel budget. Awesome sparkling heated outdoor swimming pool! A large spacious room with wide credenza, Wi-Fi Internet and big screen LCD TV. An ice cold Magic Chef fridge and microwave. And most important for a great night's sleep, a super clean, comfortable and cozy bed!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded July 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2016</t>
+  </si>
+  <si>
+    <t>Great staff at the Motel 6 Denver Tech Center Greenwood Village: Ronnie, Marlene, Desaray, Oscar, Chris and Frank to name a few.  This Motel 6 located in friendly Greenwood Village Colorado is excellent value for those on a tight travel budget. Awesome sparkling heated outdoor swimming pool! A large spacious room with wide credenza, Wi-Fi Internet and big screen LCD TV. An ice cold Magic Chef fridge and microwave. And most important for a great night's sleep, a super clean, comfortable and cozy bed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r373544234-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>373544234</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Excellent motel. Value for money.</t>
+  </si>
+  <si>
+    <t>Before I booked the room, I had read all the reviews and it was hard for me to decide on this place, but this changed soon after I entered the motel. The front desk was very courteous. I think the management has heard their customers out. They have radio frequency locks that do not need to reprogrammed every day unlike many motels in this price range. I also noticed that they were installing HD TV Channels. Will definitely come back to this motel. The location is great and the room was very clean. I checked the price on Tripadvisor and found it to be the cheapest by $21 than the next motel. My thumbs up.MoreShow less</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Before I booked the room, I had read all the reviews and it was hard for me to decide on this place, but this changed soon after I entered the motel. The front desk was very courteous. I think the management has heard their customers out. They have radio frequency locks that do not need to reprogrammed every day unlike many motels in this price range. I also noticed that they were installing HD TV Channels. Will definitely come back to this motel. The location is great and the room was very clean. I checked the price on Tripadvisor and found it to be the cheapest by $21 than the next motel. My thumbs up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r352716475-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>352716475</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Bumps and Wi-Fi Issues...Ugh.</t>
+  </si>
+  <si>
+    <t>Look at the photo again. See those 3 speed bumps on the driveway? They really are there. And there are still three if you go the other way into the parking lot, too. They aren't little bumps; they are sizable. We felt them every time we came or went from the motel. There’s no avoiding them, unless you decide to walk through the lobby every time….Um...no thanks. On the plus side, they do have several baggage carts by the front desk, and that helped us as we took baggage to and from our car. That was good. But then there was the issue of the Wi-Fi. To access the Wi-Fi, you must have a unique code from the front desk. I had chosen a room on hotels.com that had “free Wi-Fi” and the person at the front desk gave us one, but it is only good for 24 hours then you need to get a new code from the front desk. The woman at the front desk when we checked in assured us that “everyone who books over hotels.com gets free Wi-Fi, so just let them know you booked over hotels.com and they’ll give you a new code.” But when I returned after the 24 hours, the front desk said that wasn’t true and they said they had to see the word “free Wi-Fi” on my confirmation email, but I couldn’t find it. (Later, I found where it is in...Look at the photo again. See those 3 speed bumps on the driveway? They really are there. And there are still three if you go the other way into the parking lot, too. They aren't little bumps; they are sizable. We felt them every time we came or went from the motel. There’s no avoiding them, unless you decide to walk through the lobby every time….Um...no thanks. On the plus side, they do have several baggage carts by the front desk, and that helped us as we took baggage to and from our car. That was good. But then there was the issue of the Wi-Fi. To access the Wi-Fi, you must have a unique code from the front desk. I had chosen a room on hotels.com that had “free Wi-Fi” and the person at the front desk gave us one, but it is only good for 24 hours then you need to get a new code from the front desk. The woman at the front desk when we checked in assured us that “everyone who books over hotels.com gets free Wi-Fi, so just let them know you booked over hotels.com and they’ll give you a new code.” But when I returned after the 24 hours, the front desk said that wasn’t true and they said they had to see the word “free Wi-Fi” on my confirmation email, but I couldn’t find it. (Later, I found where it is in the confirmation email – a very tiny symbol rather than spelled out in words in the amenities section – hopefully that will help you). What a hassle! We ended up calling the “help with internet” phone number, and he hooked us up for the duration of our stay, so we didn't need to deal with the front desk anymore about that. When writing this, I asked my husband what his favorite part of our stay there was, and he said “Are you serious? Checking out.” That about sums it up.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>ap72denver, Guest Relations Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded March 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2016</t>
+  </si>
+  <si>
+    <t>Look at the photo again. See those 3 speed bumps on the driveway? They really are there. And there are still three if you go the other way into the parking lot, too. They aren't little bumps; they are sizable. We felt them every time we came or went from the motel. There’s no avoiding them, unless you decide to walk through the lobby every time….Um...no thanks. On the plus side, they do have several baggage carts by the front desk, and that helped us as we took baggage to and from our car. That was good. But then there was the issue of the Wi-Fi. To access the Wi-Fi, you must have a unique code from the front desk. I had chosen a room on hotels.com that had “free Wi-Fi” and the person at the front desk gave us one, but it is only good for 24 hours then you need to get a new code from the front desk. The woman at the front desk when we checked in assured us that “everyone who books over hotels.com gets free Wi-Fi, so just let them know you booked over hotels.com and they’ll give you a new code.” But when I returned after the 24 hours, the front desk said that wasn’t true and they said they had to see the word “free Wi-Fi” on my confirmation email, but I couldn’t find it. (Later, I found where it is in...Look at the photo again. See those 3 speed bumps on the driveway? They really are there. And there are still three if you go the other way into the parking lot, too. They aren't little bumps; they are sizable. We felt them every time we came or went from the motel. There’s no avoiding them, unless you decide to walk through the lobby every time….Um...no thanks. On the plus side, they do have several baggage carts by the front desk, and that helped us as we took baggage to and from our car. That was good. But then there was the issue of the Wi-Fi. To access the Wi-Fi, you must have a unique code from the front desk. I had chosen a room on hotels.com that had “free Wi-Fi” and the person at the front desk gave us one, but it is only good for 24 hours then you need to get a new code from the front desk. The woman at the front desk when we checked in assured us that “everyone who books over hotels.com gets free Wi-Fi, so just let them know you booked over hotels.com and they’ll give you a new code.” But when I returned after the 24 hours, the front desk said that wasn’t true and they said they had to see the word “free Wi-Fi” on my confirmation email, but I couldn’t find it. (Later, I found where it is in the confirmation email – a very tiny symbol rather than spelled out in words in the amenities section – hopefully that will help you). What a hassle! We ended up calling the “help with internet” phone number, and he hooked us up for the duration of our stay, so we didn't need to deal with the front desk anymore about that. When writing this, I asked my husband what his favorite part of our stay there was, and he said “Are you serious? Checking out.” That about sums it up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r350328255-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>350328255</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>This gets my vote for the WORST Motel 6 in the United States! I've stayed at many across the country.</t>
+  </si>
+  <si>
+    <t>This is a horrible excuse for a motel (even for a Motel 6). It is nasty, filthy, foul smelling &amp; dirty. There are bugs crawling around the floors, which are also dirty. Walk on the floor barefoot for only a few seconds and then look at the bottoms of your feet. Seriously! The non smoking rooms stink horribly of cigarettes. The bathroom appears to have never been cleaned at all. Disgusting and intolerable! 
+Many of the people staying here give a very distinct impression of being gang types. Certainly they must offer discounts for gang affiliation.They are absolutely everywhere! 
+This place is NOT for families, NOT for kids and definitely NOT for nice people of any kind. The wifi for which you pay does not work at all. The TV reception is awful. The sheets are old and very stained and dirty looking. Complaining about anything at all will get you an absolutely unacceptably rude and disinterested female manager, who should NOT have a job.
+Some absolutely stupid people are working in the office where you check in. Difficult to explain, but just completely ignorant and oblivious to what is going on around them. These employees are clearly here to cater to the disreputable types they attract as guests. They fit right in perfectly. 
+The parking lot is very unsafe. I actually watched someone break into a van and steal tools in the parking lot. I got the license plate,...This is a horrible excuse for a motel (even for a Motel 6). It is nasty, filthy, foul smelling &amp; dirty. There are bugs crawling around the floors, which are also dirty. Walk on the floor barefoot for only a few seconds and then look at the bottoms of your feet. Seriously! The non smoking rooms stink horribly of cigarettes. The bathroom appears to have never been cleaned at all. Disgusting and intolerable! Many of the people staying here give a very distinct impression of being gang types. Certainly they must offer discounts for gang affiliation.They are absolutely everywhere! This place is NOT for families, NOT for kids and definitely NOT for nice people of any kind. The wifi for which you pay does not work at all. The TV reception is awful. The sheets are old and very stained and dirty looking. Complaining about anything at all will get you an absolutely unacceptably rude and disinterested female manager, who should NOT have a job.Some absolutely stupid people are working in the office where you check in. Difficult to explain, but just completely ignorant and oblivious to what is going on around them. These employees are clearly here to cater to the disreputable types they attract as guests. They fit right in perfectly. The parking lot is very unsafe. I actually watched someone break into a van and steal tools in the parking lot. I got the license plate, but absolutely nothing was ever done by M6.Police are always going through here and no doubt it is because of the type of people you would never expect to see in such an upscale area as Greenwood Village. The hallways reek of pot and cigarette smoke. It is incredibly noisy at all hours of the day and night. Do yourself a favor and stay at ANY one of the many other nicer hotels right in this area. They are everywhere! PICK ANY ONE AT ALL! You can not possibly do worse than this.They need to knock this building down, get rid of these very transient looking and acting gang characters that fill the place and rebuild with something more appropriate to the area. Do not support this horrid facility! This is representative of the WORST MOTEL 6 EVER in the United States! Just an incredibly nasty facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2016</t>
+  </si>
+  <si>
+    <t>This is a horrible excuse for a motel (even for a Motel 6). It is nasty, filthy, foul smelling &amp; dirty. There are bugs crawling around the floors, which are also dirty. Walk on the floor barefoot for only a few seconds and then look at the bottoms of your feet. Seriously! The non smoking rooms stink horribly of cigarettes. The bathroom appears to have never been cleaned at all. Disgusting and intolerable! 
+Many of the people staying here give a very distinct impression of being gang types. Certainly they must offer discounts for gang affiliation.They are absolutely everywhere! 
+This place is NOT for families, NOT for kids and definitely NOT for nice people of any kind. The wifi for which you pay does not work at all. The TV reception is awful. The sheets are old and very stained and dirty looking. Complaining about anything at all will get you an absolutely unacceptably rude and disinterested female manager, who should NOT have a job.
+Some absolutely stupid people are working in the office where you check in. Difficult to explain, but just completely ignorant and oblivious to what is going on around them. These employees are clearly here to cater to the disreputable types they attract as guests. They fit right in perfectly. 
+The parking lot is very unsafe. I actually watched someone break into a van and steal tools in the parking lot. I got the license plate,...This is a horrible excuse for a motel (even for a Motel 6). It is nasty, filthy, foul smelling &amp; dirty. There are bugs crawling around the floors, which are also dirty. Walk on the floor barefoot for only a few seconds and then look at the bottoms of your feet. Seriously! The non smoking rooms stink horribly of cigarettes. The bathroom appears to have never been cleaned at all. Disgusting and intolerable! Many of the people staying here give a very distinct impression of being gang types. Certainly they must offer discounts for gang affiliation.They are absolutely everywhere! This place is NOT for families, NOT for kids and definitely NOT for nice people of any kind. The wifi for which you pay does not work at all. The TV reception is awful. The sheets are old and very stained and dirty looking. Complaining about anything at all will get you an absolutely unacceptably rude and disinterested female manager, who should NOT have a job.Some absolutely stupid people are working in the office where you check in. Difficult to explain, but just completely ignorant and oblivious to what is going on around them. These employees are clearly here to cater to the disreputable types they attract as guests. They fit right in perfectly. The parking lot is very unsafe. I actually watched someone break into a van and steal tools in the parking lot. I got the license plate, but absolutely nothing was ever done by M6.Police are always going through here and no doubt it is because of the type of people you would never expect to see in such an upscale area as Greenwood Village. The hallways reek of pot and cigarette smoke. It is incredibly noisy at all hours of the day and night. Do yourself a favor and stay at ANY one of the many other nicer hotels right in this area. They are everywhere! PICK ANY ONE AT ALL! You can not possibly do worse than this.They need to knock this building down, get rid of these very transient looking and acting gang characters that fill the place and rebuild with something more appropriate to the area. Do not support this horrid facility! This is representative of the WORST MOTEL 6 EVER in the United States! Just an incredibly nasty facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r331937065-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>331937065</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>HORRIBLE!!</t>
+  </si>
+  <si>
+    <t>Television didn't work and they wouldn't bring us a new one. An extra pillow was too much to ask for. Had to go to the front desk at least twice a day because the room keys don't work. Drug deals going on in the parking lot. A real dump...don't stay here!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver South - South Tech Center, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Television didn't work and they wouldn't bring us a new one. An extra pillow was too much to ask for. Had to go to the front desk at least twice a day because the room keys don't work. Drug deals going on in the parking lot. A real dump...don't stay here!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r321751664-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>321751664</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Scary Lobby and Elevator, Good Room</t>
+  </si>
+  <si>
+    <t>I have stayed in at least a half dozen hotels around Denver because my daughter lives there (and I've already tried sleeping on her sofa, uh no). This is the only five-story Motel 6 (or is this Hotel 6?) I have ever seen.  The types of people I saw in the lobby made me wish I had a can of pepper spray.  The elevator was wire brushed inside to remove gang tags.  Once you get past these, the room wasn't bad at all.  It was huge, the largest I have ever seen in a Motel 6.  The room looked clean.  The bathroom had a bathtub.  I doubt you can do any better, for the money, around Denver.  By the way, hotel rates have skyrocketed in Denver ever since recreational marijuana became legal there.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed in at least a half dozen hotels around Denver because my daughter lives there (and I've already tried sleeping on her sofa, uh no). This is the only five-story Motel 6 (or is this Hotel 6?) I have ever seen.  The types of people I saw in the lobby made me wish I had a can of pepper spray.  The elevator was wire brushed inside to remove gang tags.  Once you get past these, the room wasn't bad at all.  It was huge, the largest I have ever seen in a Motel 6.  The room looked clean.  The bathroom had a bathtub.  I doubt you can do any better, for the money, around Denver.  By the way, hotel rates have skyrocketed in Denver ever since recreational marijuana became legal there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r316436017-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>316436017</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>My Stay at Motel6 Greenwood Village</t>
+  </si>
+  <si>
+    <t>I have stayed at this location many times. It is easily accessible: I-25 South is nearby. The motel is surrounded by restaurants, Target, gas station and Home Depot. The price is acceptable and you get what you paid for. The staff is courteous and knowledgeable. I would like to mention great customer service  by Perry, Hector and Sol. The rooms are always clean, including the fridge and the microwave. Thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at this location many times. It is easily accessible: I-25 South is nearby. The motel is surrounded by restaurants, Target, gas station and Home Depot. The price is acceptable and you get what you paid for. The staff is courteous and knowledgeable. I would like to mention great customer service  by Perry, Hector and Sol. The rooms are always clean, including the fridge and the microwave. Thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r312901042-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>312901042</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Awesome hotel for a good price👌</t>
+  </si>
+  <si>
+    <t>We have stayed at a few motel 6 here in Denver, and this 1 here in greenwood village has been by far our favorite. It's VERY clean, quiet &amp; the staff is extremely friendly &amp; helpful. Patrick and Perry are both very on top of things. Sol who I believe is the day time manager was also very Nice. I noticed a few bad reviews on here, they must have been in a past or from a hateful customer because honestly as many times as I have stayed here and I have NEVER experienced anything negative. If there was ever a complaint they fixed it &amp; made up for it immediately. If your not looking to pay an arm &amp; a leg and are wanting to be satisfied with your stay at a clean well kept hotel than this is definitely a go-to!!! Favorite motel 6 in Denver. Good job to whoever is runnen this show!! -AliMoreShow less</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed at a few motel 6 here in Denver, and this 1 here in greenwood village has been by far our favorite. It's VERY clean, quiet &amp; the staff is extremely friendly &amp; helpful. Patrick and Perry are both very on top of things. Sol who I believe is the day time manager was also very Nice. I noticed a few bad reviews on here, they must have been in a past or from a hateful customer because honestly as many times as I have stayed here and I have NEVER experienced anything negative. If there was ever a complaint they fixed it &amp; made up for it immediately. If your not looking to pay an arm &amp; a leg and are wanting to be satisfied with your stay at a clean well kept hotel than this is definitely a go-to!!! Favorite motel 6 in Denver. Good job to whoever is runnen this show!! -AliMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r300439336-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>300439336</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Poor visit</t>
+  </si>
+  <si>
+    <t>Positive: Staff were very friendly and helpful. Nice location for catching a show at FiddlersNegative: no blow dryers in room. Had to trade drivers license for the dryer. Hallways and carpets  very dirty and unkempt. Elevator broken. . We stayed on 4th floor. They do not provide soapCable for the tv broken. Non working tv :(MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Denver South - South Tech Center, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Positive: Staff were very friendly and helpful. Nice location for catching a show at FiddlersNegative: no blow dryers in room. Had to trade drivers license for the dryer. Hallways and carpets  very dirty and unkempt. Elevator broken. . We stayed on 4th floor. They do not provide soapCable for the tv broken. Non working tv :(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r299840060-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>299840060</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>not good</t>
+  </si>
+  <si>
+    <t>rooms dirty smelt bad not a very safe place to be.would never stay there again or recommend to any one . place need a serious upgrade or tear down. the chain of motel 6 should investigate as this a bad rep.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>rooms dirty smelt bad not a very safe place to be.would never stay there again or recommend to any one . place need a serious upgrade or tear down. the chain of motel 6 should investigate as this a bad rep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r293779450-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>293779450</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Evicted for Leaving Dog Alone, Pot Everywhere</t>
+  </si>
+  <si>
+    <t>On a Monday, I got a quotation from one hotel employee, $1,280.06 for twenty-nine (29) nights' stay.  Two days later, I confirmed that rate and that rental period with another hotel employee, checked in, and paid the entire amount up front.  Ten days later, the general manager told me that she was going to have to raise my rate, by about 50%!  I told her that her hotel had already agreed to rent my room to me for a specific amount of money and for a specific period of time, and had been paid for it, and that we could discuss it after twenty-nine days had elapsed.  Within two or three hours, she slipped a letter under my door ordering me to vacate the premises the following morning, for no specified reason.  The following day, she lied to the cops, saying that I had refused to pay for the previous night and that I was refusing to leave the hotel.
+When I asked her in front of the cops exactly what the reason was for my eviction, she said, "Because you left your dog alone in the room."  I asked, "There is no other reason?"  She shook her head slowly and said "No."  First of all, leaving a pet alone in a room is not grounds for eviction.  Second, there was no complaint about my dog by anybody.  Third, my dog is extremely meek and NEVER barks inside a hotel...On a Monday, I got a quotation from one hotel employee, $1,280.06 for twenty-nine (29) nights' stay.  Two days later, I confirmed that rate and that rental period with another hotel employee, checked in, and paid the entire amount up front.  Ten days later, the general manager told me that she was going to have to raise my rate, by about 50%!  I told her that her hotel had already agreed to rent my room to me for a specific amount of money and for a specific period of time, and had been paid for it, and that we could discuss it after twenty-nine days had elapsed.  Within two or three hours, she slipped a letter under my door ordering me to vacate the premises the following morning, for no specified reason.  The following day, she lied to the cops, saying that I had refused to pay for the previous night and that I was refusing to leave the hotel.When I asked her in front of the cops exactly what the reason was for my eviction, she said, "Because you left your dog alone in the room."  I asked, "There is no other reason?"  She shook her head slowly and said "No."  First of all, leaving a pet alone in a room is not grounds for eviction.  Second, there was no complaint about my dog by anybody.  Third, my dog is extremely meek and NEVER barks inside a hotel room unless I am there with her and somebody knocks on the door.  So even if the general manager had claimed that there had been a complaint, I would not have believed her.So they kicked out a paid-up guest who had broken no rule and committed no crime, yet meanwhile there is marijuana being smoked constantly on the premises.  The police told me that while marijuana possession is legal in Colorado, smoking it in public is NOT legal.  Two or three times, I just walked down the hallway and could smell it.  One time, I walked by a room and a guy opened his door, allowing a fog of nasty marijuana smoke to escape into the hallway.  And three different times, there were folks openly smoking joints by the pool.  This is definitely not a place to bring the kids, unless you want them exposed to marijuana smoke.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver South - South Tech Center, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>On a Monday, I got a quotation from one hotel employee, $1,280.06 for twenty-nine (29) nights' stay.  Two days later, I confirmed that rate and that rental period with another hotel employee, checked in, and paid the entire amount up front.  Ten days later, the general manager told me that she was going to have to raise my rate, by about 50%!  I told her that her hotel had already agreed to rent my room to me for a specific amount of money and for a specific period of time, and had been paid for it, and that we could discuss it after twenty-nine days had elapsed.  Within two or three hours, she slipped a letter under my door ordering me to vacate the premises the following morning, for no specified reason.  The following day, she lied to the cops, saying that I had refused to pay for the previous night and that I was refusing to leave the hotel.
+When I asked her in front of the cops exactly what the reason was for my eviction, she said, "Because you left your dog alone in the room."  I asked, "There is no other reason?"  She shook her head slowly and said "No."  First of all, leaving a pet alone in a room is not grounds for eviction.  Second, there was no complaint about my dog by anybody.  Third, my dog is extremely meek and NEVER barks inside a hotel...On a Monday, I got a quotation from one hotel employee, $1,280.06 for twenty-nine (29) nights' stay.  Two days later, I confirmed that rate and that rental period with another hotel employee, checked in, and paid the entire amount up front.  Ten days later, the general manager told me that she was going to have to raise my rate, by about 50%!  I told her that her hotel had already agreed to rent my room to me for a specific amount of money and for a specific period of time, and had been paid for it, and that we could discuss it after twenty-nine days had elapsed.  Within two or three hours, she slipped a letter under my door ordering me to vacate the premises the following morning, for no specified reason.  The following day, she lied to the cops, saying that I had refused to pay for the previous night and that I was refusing to leave the hotel.When I asked her in front of the cops exactly what the reason was for my eviction, she said, "Because you left your dog alone in the room."  I asked, "There is no other reason?"  She shook her head slowly and said "No."  First of all, leaving a pet alone in a room is not grounds for eviction.  Second, there was no complaint about my dog by anybody.  Third, my dog is extremely meek and NEVER barks inside a hotel room unless I am there with her and somebody knocks on the door.  So even if the general manager had claimed that there had been a complaint, I would not have believed her.So they kicked out a paid-up guest who had broken no rule and committed no crime, yet meanwhile there is marijuana being smoked constantly on the premises.  The police told me that while marijuana possession is legal in Colorado, smoking it in public is NOT legal.  Two or three times, I just walked down the hallway and could smell it.  One time, I walked by a room and a guy opened his door, allowing a fog of nasty marijuana smoke to escape into the hallway.  And three different times, there were folks openly smoking joints by the pool.  This is definitely not a place to bring the kids, unless you want them exposed to marijuana smoke.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r282627589-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>282627589</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>VERY Dirty   STAY AWAY</t>
+  </si>
+  <si>
+    <t>I checked in, went ups elevator to the room and uncovered the bed sheets (as I always do to check for bugs) and it was VERY dirty.  There were stains on the mattress cover along with hair and some other unidentifiable substance (see pics).  It upset me so much I went downstairs within 5 minutes of checking in to request refund and the front desk man flatly refused saying "what do you expect?  It is a motel 6"  REALLY?  I have stayed at several clean and very well kept Motel 6 but this one was HORRIBLE. STAY AWAY!  The corporate office of motel 6 ought to do something about this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver South - South Tech Center, responded to this reviewResponded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2015</t>
+  </si>
+  <si>
+    <t>I checked in, went ups elevator to the room and uncovered the bed sheets (as I always do to check for bugs) and it was VERY dirty.  There were stains on the mattress cover along with hair and some other unidentifiable substance (see pics).  It upset me so much I went downstairs within 5 minutes of checking in to request refund and the front desk man flatly refused saying "what do you expect?  It is a motel 6"  REALLY?  I have stayed at several clean and very well kept Motel 6 but this one was HORRIBLE. STAY AWAY!  The corporate office of motel 6 ought to do something about this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r281678025-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>281678025</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Medical Visit</t>
+  </si>
+  <si>
+    <t>My husband and I were put here for almost 2 months while he was undergoing Medical Treatment for Kidney and Liver Failure. The hotel manager and staff were more than accommodating and we were treated more than fair. The room was more than adequate, clean and anytime you needed anything  they were more than willing to assist with your needs. I can honestly say I never experienced any kind of " major" issue or noise issue, as usually around 10:00 pm on ANY given night I never heard any commotions. The manager is very knowledgeable of his hotel, and his staff follow his lead to assist every customer courteously. I would definitely recommend this hotel!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>My husband and I were put here for almost 2 months while he was undergoing Medical Treatment for Kidney and Liver Failure. The hotel manager and staff were more than accommodating and we were treated more than fair. The room was more than adequate, clean and anytime you needed anything  they were more than willing to assist with your needs. I can honestly say I never experienced any kind of " major" issue or noise issue, as usually around 10:00 pm on ANY given night I never heard any commotions. The manager is very knowledgeable of his hotel, and his staff follow his lead to assist every customer courteously. I would definitely recommend this hotel!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r280935455-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>280935455</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Worst Motel 6 ever, do not stay here with kids!</t>
+  </si>
+  <si>
+    <t>We have stayed at plenty of Motel 6's over the years. This will be the last time. This was THE biggest dive we have EVER stayed at, and for a top-price of $74. Read all the other bad reviews for the details. It's very dirty in all the common areas and filled with shady pot-smoking people. The rooms wreak of cigarette smoke. We had a 2 queen 'modern' room on the 3rd floor that had pergo-type flooring that was scary to walk on without shoes. The beds were way too soft and uncomfortable. No coffee pots or even hot water for tea anywhere. No table or chair to sit at. No free Wifi (you have to pay $3). The maids did the best they could with dumpy rooms. We spent $20 more to stay at Quality Inn Tech Ctr, which was 1000x's nicer, cleaner, all the amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver South - South Tech Center, responded to this reviewResponded June 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed at plenty of Motel 6's over the years. This will be the last time. This was THE biggest dive we have EVER stayed at, and for a top-price of $74. Read all the other bad reviews for the details. It's very dirty in all the common areas and filled with shady pot-smoking people. The rooms wreak of cigarette smoke. We had a 2 queen 'modern' room on the 3rd floor that had pergo-type flooring that was scary to walk on without shoes. The beds were way too soft and uncomfortable. No coffee pots or even hot water for tea anywhere. No table or chair to sit at. No free Wifi (you have to pay $3). The maids did the best they could with dumpy rooms. We spent $20 more to stay at Quality Inn Tech Ctr, which was 1000x's nicer, cleaner, all the amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r266517526-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>266517526</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>They booked me in the wrong room and didn't even offer to fix it. Horrid customer service, the room was dirty, and their parking lot was littered with food. I will never stay here again, the room was cheap so I wasn't expecting too much but they could've at least triedMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver South - South Tech Center, responded to this reviewResponded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2015</t>
+  </si>
+  <si>
+    <t>They booked me in the wrong room and didn't even offer to fix it. Horrid customer service, the room was dirty, and their parking lot was littered with food. I will never stay here again, the room was cheap so I wasn't expecting too much but they could've at least triedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r244097056-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>244097056</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Not bad!!!!</t>
+  </si>
+  <si>
+    <t>I read all the comments and was really not so sure about this place. I was staying at the one in lakewood and that one is ghetto compared to this one. The rooms are bigger here and they have a bath tub the building looks old but the rooms are clean my bed was softer that the other place and they also have a fridge and microwave in the room with also a flat screen tv. The lady at the front desk was very nice I will be stayin here again..MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>ap72denver, Owner at Motel 6 Denver South - South Tech Center, responded to this reviewResponded June 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2015</t>
+  </si>
+  <si>
+    <t>I read all the comments and was really not so sure about this place. I was staying at the one in lakewood and that one is ghetto compared to this one. The rooms are bigger here and they have a bath tub the building looks old but the rooms are clean my bed was softer that the other place and they also have a fridge and microwave in the room with also a flat screen tv. The lady at the front desk was very nice I will be stayin here again..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r220024402-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>220024402</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>TERRIBLE experience!</t>
+  </si>
+  <si>
+    <t>My husband and I are traveling from Alabama and, since this hotel was cheap and LOOKED pretty nice from the pictures, decided to give it a try. Sorry if this is a novel but I want everyone to know the kind of hotel you're booking!! 
+First of all, the woman at reservations told us that the entire hotel was updated in 2012.. Vessel sinks, platform beds, nice TV... And also that our room was going to be non-smoking. Since all of that sounded great, we went ahead and booked the reservation. Never doing that again. 
+Once we got to the hotel, we noticed a bunch of sketchy-looking people hanging around outside. Walked into the hotel and was overwhelmed by this TERRIBLE odor... But at this point we were still hopeful. Got to our "non smoking" room and it REEKED of cigarettes so bad that the person who cleaned it had left the window open. The beds were actually clean, although none of the "updates" had been done but it was just SO smelly... It seriously smelled like about 20 people had been smoking in there. My husband is also allergic to the smell of cigarettes, so we decided to go downstairs and try to get our money back.  
+When we told the front desk clerk about the room and that we were given a false representation of what we were paying for, she got us another non-smoking room to try...My husband and I are traveling from Alabama and, since this hotel was cheap and LOOKED pretty nice from the pictures, decided to give it a try. Sorry if this is a novel but I want everyone to know the kind of hotel you're booking!! First of all, the woman at reservations told us that the entire hotel was updated in 2012.. Vessel sinks, platform beds, nice TV... And also that our room was going to be non-smoking. Since all of that sounded great, we went ahead and booked the reservation. Never doing that again. Once we got to the hotel, we noticed a bunch of sketchy-looking people hanging around outside. Walked into the hotel and was overwhelmed by this TERRIBLE odor... But at this point we were still hopeful. Got to our "non smoking" room and it REEKED of cigarettes so bad that the person who cleaned it had left the window open. The beds were actually clean, although none of the "updates" had been done but it was just SO smelly... It seriously smelled like about 20 people had been smoking in there. My husband is also allergic to the smell of cigarettes, so we decided to go downstairs and try to get our money back.  When we told the front desk clerk about the room and that we were given a false representation of what we were paying for, she got us another non-smoking room to try out. We were happy about that, but this was the nail in the coffin.. On the way to our second room, this guy (who looked like the crackhead version of Sisqo) with a beer in one hand and a dirty bottle of screws in the other basically harassed us. We knew he was up to something because he was following us around and eyeing our stuff, which is about $1,000 worth of camping/backpacking gear. Before he could follow us into the elevator, my husband was just disgusted and turned around and asked the clerk for a refund. We didn't even enter our second room. As she's telling us there's nothing she can do, her kid comes up and starts drawing on the walls with a Sharpie! We say something and the girl says, "Oh, it's not that bad!" Not only did she act high out of her mind (giving her the benefit of the doubt.. it is Colorado) but she didn't even care that her kid was drawing on the walls?! Anyway, I don't mean to sound like I'm "above" that kind if scene but it was just horrible and felt extremely unsafe. After that, we left and found another hotel in Loveland, which felt much less like a scene from a murder. The next morning, my husband called the manager Omar to try to get his money back. Omar originally said no, but after we threatened to call guest services and my husband yelled for a few minutes, he finally gave us a refund. Im closing, I would not advise anyone to go to this hotel! It is a completely unsafe environment and they are scamming people with promises of "updates" that aren't there! We will never stay at ANY Motel 6 again. You can get a much better experience for $30 more. MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I are traveling from Alabama and, since this hotel was cheap and LOOKED pretty nice from the pictures, decided to give it a try. Sorry if this is a novel but I want everyone to know the kind of hotel you're booking!! 
+First of all, the woman at reservations told us that the entire hotel was updated in 2012.. Vessel sinks, platform beds, nice TV... And also that our room was going to be non-smoking. Since all of that sounded great, we went ahead and booked the reservation. Never doing that again. 
+Once we got to the hotel, we noticed a bunch of sketchy-looking people hanging around outside. Walked into the hotel and was overwhelmed by this TERRIBLE odor... But at this point we were still hopeful. Got to our "non smoking" room and it REEKED of cigarettes so bad that the person who cleaned it had left the window open. The beds were actually clean, although none of the "updates" had been done but it was just SO smelly... It seriously smelled like about 20 people had been smoking in there. My husband is also allergic to the smell of cigarettes, so we decided to go downstairs and try to get our money back.  
+When we told the front desk clerk about the room and that we were given a false representation of what we were paying for, she got us another non-smoking room to try...My husband and I are traveling from Alabama and, since this hotel was cheap and LOOKED pretty nice from the pictures, decided to give it a try. Sorry if this is a novel but I want everyone to know the kind of hotel you're booking!! First of all, the woman at reservations told us that the entire hotel was updated in 2012.. Vessel sinks, platform beds, nice TV... And also that our room was going to be non-smoking. Since all of that sounded great, we went ahead and booked the reservation. Never doing that again. Once we got to the hotel, we noticed a bunch of sketchy-looking people hanging around outside. Walked into the hotel and was overwhelmed by this TERRIBLE odor... But at this point we were still hopeful. Got to our "non smoking" room and it REEKED of cigarettes so bad that the person who cleaned it had left the window open. The beds were actually clean, although none of the "updates" had been done but it was just SO smelly... It seriously smelled like about 20 people had been smoking in there. My husband is also allergic to the smell of cigarettes, so we decided to go downstairs and try to get our money back.  When we told the front desk clerk about the room and that we were given a false representation of what we were paying for, she got us another non-smoking room to try out. We were happy about that, but this was the nail in the coffin.. On the way to our second room, this guy (who looked like the crackhead version of Sisqo) with a beer in one hand and a dirty bottle of screws in the other basically harassed us. We knew he was up to something because he was following us around and eyeing our stuff, which is about $1,000 worth of camping/backpacking gear. Before he could follow us into the elevator, my husband was just disgusted and turned around and asked the clerk for a refund. We didn't even enter our second room. As she's telling us there's nothing she can do, her kid comes up and starts drawing on the walls with a Sharpie! We say something and the girl says, "Oh, it's not that bad!" Not only did she act high out of her mind (giving her the benefit of the doubt.. it is Colorado) but she didn't even care that her kid was drawing on the walls?! Anyway, I don't mean to sound like I'm "above" that kind if scene but it was just horrible and felt extremely unsafe. After that, we left and found another hotel in Loveland, which felt much less like a scene from a murder. The next morning, my husband called the manager Omar to try to get his money back. Omar originally said no, but after we threatened to call guest services and my husband yelled for a few minutes, he finally gave us a refund. Im closing, I would not advise anyone to go to this hotel! It is a completely unsafe environment and they are scamming people with promises of "updates" that aren't there! We will never stay at ANY Motel 6 again. You can get a much better experience for $30 more. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r202371448-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>202371448</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>I am very pleased with my stay at this motel.</t>
+  </si>
+  <si>
+    <t>To read more read my review (Dashuri) for the Motel 6 in Lakewood Colorado. The lady here really saved my evening after crummy service by one disinterested young man in Lakewood. Awesome service at Greenwood Village location. Cleaner more modern comfy and safer here too. Check out my review at other location to learn more. A± service from Carla!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r198906879-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>198906879</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>Nice staff, everything else is terrible.</t>
+  </si>
+  <si>
+    <t>My wife, puppies, and I needed somewhere to stay for two weeks between selling our old home and closing on our new one.  Due to cost, we made the mistake of choosing Motel 6.  
+The location is excellent, right off the highway and the staff is very nice and helpful when they can.  That sums up the good things about this motel.  It seems as though the owner just cashes the checks and that's it.  The rooms have not been updated since the 90s.  That includes the tvs.  The owner is absolutely fine with fraudulent advertising.  The website and multiple publications claim that all rooms are "modernized" with a 32" lcd tv with av hookups.  That is a blatant lie.  As it turns out, only a few rooms, the king rooms that cost more, have the aforementioned tvs.  All of the others have a Magnavox tube tv that was considered cheap and low quality when it was made in 1996.  The picture looks like someone turned the brightness down and the red contrast way up.  The staff gets many complaints about the tvs, but are powerless to do anything.  The owner did a great job throwing them under the bus.  The entire place has a weird, slightly disgusting odor about it and my wife and I didn't feel comfortable the entire time.  The bathrooms are in terrible need of renovating, I think I saw mold growing, and the rooms need...My wife, puppies, and I needed somewhere to stay for two weeks between selling our old home and closing on our new one.  Due to cost, we made the mistake of choosing Motel 6.  The location is excellent, right off the highway and the staff is very nice and helpful when they can.  That sums up the good things about this motel.  It seems as though the owner just cashes the checks and that's it.  The rooms have not been updated since the 90s.  That includes the tvs.  The owner is absolutely fine with fraudulent advertising.  The website and multiple publications claim that all rooms are "modernized" with a 32" lcd tv with av hookups.  That is a blatant lie.  As it turns out, only a few rooms, the king rooms that cost more, have the aforementioned tvs.  All of the others have a Magnavox tube tv that was considered cheap and low quality when it was made in 1996.  The picture looks like someone turned the brightness down and the red contrast way up.  The staff gets many complaints about the tvs, but are powerless to do anything.  The owner did a great job throwing them under the bus.  The entire place has a weird, slightly disgusting odor about it and my wife and I didn't feel comfortable the entire time.  The bathrooms are in terrible need of renovating, I think I saw mold growing, and the rooms need to be brought into this century.  It is as if the owner really does not care and sets his staff up to fail.  To cap it off the internet is terrible and rarely works.  All in all, I would recommend staying anywhere else if one is in the DTC.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>My wife, puppies, and I needed somewhere to stay for two weeks between selling our old home and closing on our new one.  Due to cost, we made the mistake of choosing Motel 6.  
+The location is excellent, right off the highway and the staff is very nice and helpful when they can.  That sums up the good things about this motel.  It seems as though the owner just cashes the checks and that's it.  The rooms have not been updated since the 90s.  That includes the tvs.  The owner is absolutely fine with fraudulent advertising.  The website and multiple publications claim that all rooms are "modernized" with a 32" lcd tv with av hookups.  That is a blatant lie.  As it turns out, only a few rooms, the king rooms that cost more, have the aforementioned tvs.  All of the others have a Magnavox tube tv that was considered cheap and low quality when it was made in 1996.  The picture looks like someone turned the brightness down and the red contrast way up.  The staff gets many complaints about the tvs, but are powerless to do anything.  The owner did a great job throwing them under the bus.  The entire place has a weird, slightly disgusting odor about it and my wife and I didn't feel comfortable the entire time.  The bathrooms are in terrible need of renovating, I think I saw mold growing, and the rooms need...My wife, puppies, and I needed somewhere to stay for two weeks between selling our old home and closing on our new one.  Due to cost, we made the mistake of choosing Motel 6.  The location is excellent, right off the highway and the staff is very nice and helpful when they can.  That sums up the good things about this motel.  It seems as though the owner just cashes the checks and that's it.  The rooms have not been updated since the 90s.  That includes the tvs.  The owner is absolutely fine with fraudulent advertising.  The website and multiple publications claim that all rooms are "modernized" with a 32" lcd tv with av hookups.  That is a blatant lie.  As it turns out, only a few rooms, the king rooms that cost more, have the aforementioned tvs.  All of the others have a Magnavox tube tv that was considered cheap and low quality when it was made in 1996.  The picture looks like someone turned the brightness down and the red contrast way up.  The staff gets many complaints about the tvs, but are powerless to do anything.  The owner did a great job throwing them under the bus.  The entire place has a weird, slightly disgusting odor about it and my wife and I didn't feel comfortable the entire time.  The bathrooms are in terrible need of renovating, I think I saw mold growing, and the rooms need to be brought into this century.  It is as if the owner really does not care and sets his staff up to fail.  To cap it off the internet is terrible and rarely works.  All in all, I would recommend staying anywhere else if one is in the DTC.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r172150221-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>172150221</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>Very very rude employee</t>
+  </si>
+  <si>
+    <t>First off I want to say that the general manager(Amar) is always very nice and helpful.. I have been staying here for several months and never had any issues, I work all the time and come back to watch tv for a little bit and go to sleep.. I've had several issues with the night clerk being very rude and disrespectful for no apparent reason, her name is Carla...I picked up my mail from the front desk one day, two days later I was doing laundry and Carla came into the laundry room and threw my mail at me, she proceeds to yell at me saying I need to check my mail more often because it had been clogging up space in the front desk for over two weeks, funny since I just picked up my two letters and everything she threw on the floor was postmarked from the day before..another day I wad getting a drink from the soda machine and Carla comes in and starts.yelling at me for doing laundry too late( I was getting a drink and had no laundry in)...today she crossed the line, for lengthy stays your room gets cleaned on tues and Friday, after working 12 hrs today I come back to my room which was not clean, three towels and a bar of soap were dropped off, floor weren't done, sink wasn't cleaned, tub wasn't cleaned,.sheets.weren't changed this past Friday or today and...First off I want to say that the general manager(Amar) is always very nice and helpful.. I have been staying here for several months and never had any issues, I work all the time and come back to watch tv for a little bit and go to sleep.. I've had several issues with the night clerk being very rude and disrespectful for no apparent reason, her name is Carla...I picked up my mail from the front desk one day, two days later I was doing laundry and Carla came into the laundry room and threw my mail at me, she proceeds to yell at me saying I need to check my mail more often because it had been clogging up space in the front desk for over two weeks, funny since I just picked up my two letters and everything she threw on the floor was postmarked from the day before..another day I wad getting a drink from the soda machine and Carla comes in and starts.yelling at me for doing laundry too late( I was getting a drink and had no laundry in)...today she crossed the line, for lengthy stays your room gets cleaned on tues and Friday, after working 12 hrs today I come back to my room which was not clean, three towels and a bar of soap were dropped off, floor weren't done, sink wasn't cleaned, tub wasn't cleaned,.sheets.weren't changed this past Friday or today and we didn't get toilet paper. I went to the front desk to kindly ask Carla for some sheets, she rudely replied, you dont need sheets cause your room was.cleaned today..I replied,.saying it wasnt cleaned, there was three towels and  bar of soap dropped of but nothing was cleaned... she called me a liar and told me to come back later if I wanted more sheets because I received them when my room was clesned today, my girlfriend said they dropped off towels and left our dirty sheets on the floor, Carla says if you dont leave the office I will call the police, meanwhile someone in the office comes out with a fresh pair of sheets for us and apologizes for Carla's attitude...I will be giving her a review on every travel website, writing corporate, and speaking with the.General manager in the morning...just.cause she.hates herlife doesn't mean she has to ruin my day, if you hate your job Carla get a new one...Very upset about the way I've been treatedMoreShow less</t>
+  </si>
+  <si>
+    <t>First off I want to say that the general manager(Amar) is always very nice and helpful.. I have been staying here for several months and never had any issues, I work all the time and come back to watch tv for a little bit and go to sleep.. I've had several issues with the night clerk being very rude and disrespectful for no apparent reason, her name is Carla...I picked up my mail from the front desk one day, two days later I was doing laundry and Carla came into the laundry room and threw my mail at me, she proceeds to yell at me saying I need to check my mail more often because it had been clogging up space in the front desk for over two weeks, funny since I just picked up my two letters and everything she threw on the floor was postmarked from the day before..another day I wad getting a drink from the soda machine and Carla comes in and starts.yelling at me for doing laundry too late( I was getting a drink and had no laundry in)...today she crossed the line, for lengthy stays your room gets cleaned on tues and Friday, after working 12 hrs today I come back to my room which was not clean, three towels and a bar of soap were dropped off, floor weren't done, sink wasn't cleaned, tub wasn't cleaned,.sheets.weren't changed this past Friday or today and...First off I want to say that the general manager(Amar) is always very nice and helpful.. I have been staying here for several months and never had any issues, I work all the time and come back to watch tv for a little bit and go to sleep.. I've had several issues with the night clerk being very rude and disrespectful for no apparent reason, her name is Carla...I picked up my mail from the front desk one day, two days later I was doing laundry and Carla came into the laundry room and threw my mail at me, she proceeds to yell at me saying I need to check my mail more often because it had been clogging up space in the front desk for over two weeks, funny since I just picked up my two letters and everything she threw on the floor was postmarked from the day before..another day I wad getting a drink from the soda machine and Carla comes in and starts.yelling at me for doing laundry too late( I was getting a drink and had no laundry in)...today she crossed the line, for lengthy stays your room gets cleaned on tues and Friday, after working 12 hrs today I come back to my room which was not clean, three towels and a bar of soap were dropped off, floor weren't done, sink wasn't cleaned, tub wasn't cleaned,.sheets.weren't changed this past Friday or today and we didn't get toilet paper. I went to the front desk to kindly ask Carla for some sheets, she rudely replied, you dont need sheets cause your room was.cleaned today..I replied,.saying it wasnt cleaned, there was three towels and  bar of soap dropped of but nothing was cleaned... she called me a liar and told me to come back later if I wanted more sheets because I received them when my room was clesned today, my girlfriend said they dropped off towels and left our dirty sheets on the floor, Carla says if you dont leave the office I will call the police, meanwhile someone in the office comes out with a fresh pair of sheets for us and apologizes for Carla's attitude...I will be giving her a review on every travel website, writing corporate, and speaking with the.General manager in the morning...just.cause she.hates herlife doesn't mean she has to ruin my day, if you hate your job Carla get a new one...Very upset about the way I've been treatedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r131699202-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>131699202</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>Just stay somewhere else!!!</t>
+  </si>
+  <si>
+    <t>I would just stay somewhere else...I stay at hotels/motels on a regular basis all year for about 6 years and Im not picky or hard to please. Ive stayed in really bad motels, really good hotels and in between...it doesnt matter and I usually only write reviews if things are pretty bad. I hate Motel 6 as a chain in general. Even though its a cheaper chain its still too expensive for what you get these days. Small beds, few tv channels, no alarm clocks, no free internet and the internet you pay for sucks. Im also from the Denver area and Greenwood Village is known as a pretty nice area so I figured at its worst this motel 6 wouldnt be that bad...I was wrong.....Heres my experience that may be updated as Im still here; The staff is super friendly, the male afternoon clerk needs a raise because he was just really nice...for the most part the staff was so nice that I feel bad that they have to work at such a crappy motel. The rooms are partially renovated (I seen a few rooms) and look like an Ikea store but the bathrooms arent renovated..the toilets flushed bad and the shower was old and sprayed everywhere...didnt matter to me, Ive seen worse but some might care. (please read ending of review for something that does matter no matter how laid back I am) I had the do not...I would just stay somewhere else...I stay at hotels/motels on a regular basis all year for about 6 years and Im not picky or hard to please. Ive stayed in really bad motels, really good hotels and in between...it doesnt matter and I usually only write reviews if things are pretty bad. I hate Motel 6 as a chain in general. Even though its a cheaper chain its still too expensive for what you get these days. Small beds, few tv channels, no alarm clocks, no free internet and the internet you pay for sucks. Im also from the Denver area and Greenwood Village is known as a pretty nice area so I figured at its worst this motel 6 wouldnt be that bad...I was wrong.....Heres my experience that may be updated as Im still here; The staff is super friendly, the male afternoon clerk needs a raise because he was just really nice...for the most part the staff was so nice that I feel bad that they have to work at such a crappy motel. The rooms are partially renovated (I seen a few rooms) and look like an Ikea store but the bathrooms arent renovated..the toilets flushed bad and the shower was old and sprayed everywhere...didnt matter to me, Ive seen worse but some might care. (please read ending of review for something that does matter no matter how laid back I am) I had the do not disturb sign up and both locks, locked yet 2 mornings in a row the maids knocked at 830am and tried coming in There are shady people everywhere...using the motel to party at, beer bottles everywhere, people yelling and being loud, a girl puked along an entire hallway 1 night (the maids did clean it up the next morning when they were informed about it)...The partying locals monopolize the pool, so good luck enjoying that.... There is a heavy cop presence between this motel and the 1 next door but apparently for good reason I guess....they have been in this motel every night arresting someone (fighting, drinking, drugs, noise) Im a younger easy going person that also likes to party but this was all ridiculous. The internet isnt free and you have to purchase a 24 hour access code at the front desk for $3....Everything worked fine the 1st night but the 2nd night apparently none of the access code cards are working, I go to the front and the younger evening front desk clerk said she'd call the customer service for me but not all the cards would do that. So I go back to my room and while Im waiting for her to call the room I try my other card...and it doesnt work either...and hour later I go back down and the younger girl had already left and the late night clerk wasnt much help but was friendly and told me they dont call customer service for guest and gave me every option besides a refund for all my useless internet cards. Had I known this I would have called myself no complaint yet I waited for an hour....Anyway, I call customer service and am on the phone 20 minutes but they were able to bypass the bad codes and get the internet working for me. NOW, something I am used to having managed a hotel and staying at so many...but wont tolerate....Bed Bugs..or any biting bug in my bed....My boyfriend in 2 nights has been bitten 6 times and even though I know what to look for, I havent seen any but he was bitten so bad that our company had our room moved for us.... At this point I really just want to move to another hotel so I hope this reviews saves someone the hassle....this motel is cheap but not so much cheaper you should stay here anyways....MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I would just stay somewhere else...I stay at hotels/motels on a regular basis all year for about 6 years and Im not picky or hard to please. Ive stayed in really bad motels, really good hotels and in between...it doesnt matter and I usually only write reviews if things are pretty bad. I hate Motel 6 as a chain in general. Even though its a cheaper chain its still too expensive for what you get these days. Small beds, few tv channels, no alarm clocks, no free internet and the internet you pay for sucks. Im also from the Denver area and Greenwood Village is known as a pretty nice area so I figured at its worst this motel 6 wouldnt be that bad...I was wrong.....Heres my experience that may be updated as Im still here; The staff is super friendly, the male afternoon clerk needs a raise because he was just really nice...for the most part the staff was so nice that I feel bad that they have to work at such a crappy motel. The rooms are partially renovated (I seen a few rooms) and look like an Ikea store but the bathrooms arent renovated..the toilets flushed bad and the shower was old and sprayed everywhere...didnt matter to me, Ive seen worse but some might care. (please read ending of review for something that does matter no matter how laid back I am) I had the do not...I would just stay somewhere else...I stay at hotels/motels on a regular basis all year for about 6 years and Im not picky or hard to please. Ive stayed in really bad motels, really good hotels and in between...it doesnt matter and I usually only write reviews if things are pretty bad. I hate Motel 6 as a chain in general. Even though its a cheaper chain its still too expensive for what you get these days. Small beds, few tv channels, no alarm clocks, no free internet and the internet you pay for sucks. Im also from the Denver area and Greenwood Village is known as a pretty nice area so I figured at its worst this motel 6 wouldnt be that bad...I was wrong.....Heres my experience that may be updated as Im still here; The staff is super friendly, the male afternoon clerk needs a raise because he was just really nice...for the most part the staff was so nice that I feel bad that they have to work at such a crappy motel. The rooms are partially renovated (I seen a few rooms) and look like an Ikea store but the bathrooms arent renovated..the toilets flushed bad and the shower was old and sprayed everywhere...didnt matter to me, Ive seen worse but some might care. (please read ending of review for something that does matter no matter how laid back I am) I had the do not disturb sign up and both locks, locked yet 2 mornings in a row the maids knocked at 830am and tried coming in There are shady people everywhere...using the motel to party at, beer bottles everywhere, people yelling and being loud, a girl puked along an entire hallway 1 night (the maids did clean it up the next morning when they were informed about it)...The partying locals monopolize the pool, so good luck enjoying that.... There is a heavy cop presence between this motel and the 1 next door but apparently for good reason I guess....they have been in this motel every night arresting someone (fighting, drinking, drugs, noise) Im a younger easy going person that also likes to party but this was all ridiculous. The internet isnt free and you have to purchase a 24 hour access code at the front desk for $3....Everything worked fine the 1st night but the 2nd night apparently none of the access code cards are working, I go to the front and the younger evening front desk clerk said she'd call the customer service for me but not all the cards would do that. So I go back to my room and while Im waiting for her to call the room I try my other card...and it doesnt work either...and hour later I go back down and the younger girl had already left and the late night clerk wasnt much help but was friendly and told me they dont call customer service for guest and gave me every option besides a refund for all my useless internet cards. Had I known this I would have called myself no complaint yet I waited for an hour....Anyway, I call customer service and am on the phone 20 minutes but they were able to bypass the bad codes and get the internet working for me. NOW, something I am used to having managed a hotel and staying at so many...but wont tolerate....Bed Bugs..or any biting bug in my bed....My boyfriend in 2 nights has been bitten 6 times and even though I know what to look for, I havent seen any but he was bitten so bad that our company had our room moved for us.... At this point I really just want to move to another hotel so I hope this reviews saves someone the hassle....this motel is cheap but not so much cheaper you should stay here anyways....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r130557300-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>130557300</t>
+  </si>
+  <si>
+    <t>05/24/2012</t>
+  </si>
+  <si>
+    <t>Don't Even Bother</t>
+  </si>
+  <si>
+    <t>I'd suggest NOT staying here. I had reserved a room online and paid $1 a night for a fridge and our room didn't even have one. When we got in the floor was wet and dirty (no idea why it was wet). The towels were ratty and looked like rags and one even had what appeared to be yellow pus on it. We stayed a total of 2 nights and we could tell that the sheets were not changed the following day.The service was horrible and when we came back the first night at 1am after a concert our keys did not let us into the building. When someone came out we went in and our keys would not let us into our room! We had to go to the front desk and deal with the horrible service to get the keys to work to our room. The following morning, when we were running a bit late, the shower took a total of (and I timed it) 6 minutes to warm up. Overall, horrible experience I would suggest staying away. The employees were rude and unhelpful and the room was disgusting.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I'd suggest NOT staying here. I had reserved a room online and paid $1 a night for a fridge and our room didn't even have one. When we got in the floor was wet and dirty (no idea why it was wet). The towels were ratty and looked like rags and one even had what appeared to be yellow pus on it. We stayed a total of 2 nights and we could tell that the sheets were not changed the following day.The service was horrible and when we came back the first night at 1am after a concert our keys did not let us into the building. When someone came out we went in and our keys would not let us into our room! We had to go to the front desk and deal with the horrible service to get the keys to work to our room. The following morning, when we were running a bit late, the shower took a total of (and I timed it) 6 minutes to warm up. Overall, horrible experience I would suggest staying away. The employees were rude and unhelpful and the room was disgusting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r67307376-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>67307376</t>
+  </si>
+  <si>
+    <t>06/12/2010</t>
+  </si>
+  <si>
+    <t>Stay Away!!!</t>
+  </si>
+  <si>
+    <t>Drove from Ouray, Co. to catch a plane the next day so I got in town late. Since I was tired and only going to spend a few hours at the hotel we decided to go cheap and get a room at the Motel 6. The place looked run down but how bad could it be. We checked in and went up to the room, right away we noticed how hot the room was (the high that day was in the upper 90's). So on went the window AC unit. It,s fan started and intermitted squeeking. After about 10 minutes I went down to the desk to ask for another room. They promptly said OK but I wanted to check it out before we moved. It was on the top floor. Apparentlly this is where the party people stay because the people I pasted in the hall going in and out of rooms looked at me like I was a NARC (I am 51). Went in the room (which was as run down as the other) and it's AC unit would not even turn on. Took the key back to the desk and went back to the orginal room, no other rooms we availabe and I was too tired to go to another motel. We left the AC off all night with the room tempature in the upper 80's. We got up early and left. The good thing that came...Drove from Ouray, Co. to catch a plane the next day so I got in town late. Since I was tired and only going to spend a few hours at the hotel we decided to go cheap and get a room at the Motel 6. The place looked run down but how bad could it be. We checked in and went up to the room, right away we noticed how hot the room was (the high that day was in the upper 90's). So on went the window AC unit. It,s fan started and intermitted squeeking. After about 10 minutes I went down to the desk to ask for another room. They promptly said OK but I wanted to check it out before we moved. It was on the top floor. Apparentlly this is where the party people stay because the people I pasted in the hall going in and out of rooms looked at me like I was a NARC (I am 51). Went in the room (which was as run down as the other) and it's AC unit would not even turn on. Took the key back to the desk and went back to the orginal room, no other rooms we availabe and I was too tired to go to another motel. We left the AC off all night with the room tempature in the upper 80's. We got up early and left. The good thing that came out of this experience is that I will not try to sleep cheap again, it just ruins a great vacation. The fun photo below is the no smoking ash tray in our room.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>Drove from Ouray, Co. to catch a plane the next day so I got in town late. Since I was tired and only going to spend a few hours at the hotel we decided to go cheap and get a room at the Motel 6. The place looked run down but how bad could it be. We checked in and went up to the room, right away we noticed how hot the room was (the high that day was in the upper 90's). So on went the window AC unit. It,s fan started and intermitted squeeking. After about 10 minutes I went down to the desk to ask for another room. They promptly said OK but I wanted to check it out before we moved. It was on the top floor. Apparentlly this is where the party people stay because the people I pasted in the hall going in and out of rooms looked at me like I was a NARC (I am 51). Went in the room (which was as run down as the other) and it's AC unit would not even turn on. Took the key back to the desk and went back to the orginal room, no other rooms we availabe and I was too tired to go to another motel. We left the AC off all night with the room tempature in the upper 80's. We got up early and left. The good thing that came...Drove from Ouray, Co. to catch a plane the next day so I got in town late. Since I was tired and only going to spend a few hours at the hotel we decided to go cheap and get a room at the Motel 6. The place looked run down but how bad could it be. We checked in and went up to the room, right away we noticed how hot the room was (the high that day was in the upper 90's). So on went the window AC unit. It,s fan started and intermitted squeeking. After about 10 minutes I went down to the desk to ask for another room. They promptly said OK but I wanted to check it out before we moved. It was on the top floor. Apparentlly this is where the party people stay because the people I pasted in the hall going in and out of rooms looked at me like I was a NARC (I am 51). Went in the room (which was as run down as the other) and it's AC unit would not even turn on. Took the key back to the desk and went back to the orginal room, no other rooms we availabe and I was too tired to go to another motel. We left the AC off all night with the room tempature in the upper 80's. We got up early and left. The good thing that came out of this experience is that I will not try to sleep cheap again, it just ruins a great vacation. The fun photo below is the no smoking ash tray in our room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r20011674-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>20011674</t>
+  </si>
+  <si>
+    <t>09/13/2008</t>
+  </si>
+  <si>
+    <t>Not too bad, despite outward appearances</t>
+  </si>
+  <si>
+    <t>Despite the worn carpet and peeling panels in the elevator, it was an OK stay. The building was very quiet and soundproofed, unlike most Motel 6's. The room was reasonably clean, and the front desk staff friendly. There is a vending and laundry room  next to the office. The site was surrounded by fast food eateries and near the freeway. It's a Motel 6, and an old one too. Don't expect more, but it is easy on the wallet, and pet friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r11124383-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>11124383</t>
+  </si>
+  <si>
+    <t>11/28/2007</t>
+  </si>
+  <si>
+    <t>It is what it is, but that's not so bad...</t>
+  </si>
+  <si>
+    <t>This is a Motel 6. I wasn't expecting The Plaza. However, what my sister and I did get was a clean, comfortable, quiet room in a hotel convenient to I-25. We were a little dismayed when we got on the elevator. The carpet was dirty inside, and wasn't in great shape in the hallways. However, when we got into the room, that changed. The room was spotless. Everything was clean and fresh-smelling. Again, with this being Motel 6, there weren't the amenities there are in other chains. I don't necessarily have a problem with this, however. We weren't in the hotel that much, anyway. The front desk staff was friendly and helpful, and the area where the hotel is located seemed to be very safe--a plus for two women travelers. It's also not far from the toll expressway, which is by far the easiest way to get to Denver International Airport on a weekday morning.The hotel was exceptionally quiet and we slept well on comfortable beds. If you need a less expensive place to stay, this is a good choice. I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>This is a Motel 6. I wasn't expecting The Plaza. However, what my sister and I did get was a clean, comfortable, quiet room in a hotel convenient to I-25. We were a little dismayed when we got on the elevator. The carpet was dirty inside, and wasn't in great shape in the hallways. However, when we got into the room, that changed. The room was spotless. Everything was clean and fresh-smelling. Again, with this being Motel 6, there weren't the amenities there are in other chains. I don't necessarily have a problem with this, however. We weren't in the hotel that much, anyway. The front desk staff was friendly and helpful, and the area where the hotel is located seemed to be very safe--a plus for two women travelers. It's also not far from the toll expressway, which is by far the easiest way to get to Denver International Airport on a weekday morning.The hotel was exceptionally quiet and we slept well on comfortable beds. If you need a less expensive place to stay, this is a good choice. I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r10259350-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>10259350</t>
+  </si>
+  <si>
+    <t>10/23/2007</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>This is a multi-story with interior corridors Motel 6 located in a business area . . . so the neighborhood is relatively safe. Easy freeway access, many restaurants and stores within walking distance or easy drive. Front desk was pleasant, our room was an average Motel6 room . . . so-so bed, bare essentials. Room seemed to be very clean(we left a tip for the maid--good job!). Not excessively noisy and everything worked just fine.</t>
+  </si>
+  <si>
+    <t>October 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1651,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1683,3121 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>153</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>171</v>
+      </c>
+      <c r="X18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>179</v>
+      </c>
+      <c r="X19" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>188</v>
+      </c>
+      <c r="X21" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>188</v>
+      </c>
+      <c r="X22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>213</v>
+      </c>
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>214</v>
+      </c>
+      <c r="X24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>213</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>222</v>
+      </c>
+      <c r="X25" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>231</v>
+      </c>
+      <c r="X26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>117</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X27" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>248</v>
+      </c>
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>249</v>
+      </c>
+      <c r="X28" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>258</v>
+      </c>
+      <c r="X29" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J30" t="s">
+        <v>263</v>
+      </c>
+      <c r="K30" t="s">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s">
+        <v>265</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>266</v>
+      </c>
+      <c r="O30" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>267</v>
+      </c>
+      <c r="X30" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31" t="s">
+        <v>272</v>
+      </c>
+      <c r="K31" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" t="s">
+        <v>274</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>266</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>275</v>
+      </c>
+      <c r="X31" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" t="s">
+        <v>281</v>
+      </c>
+      <c r="L32" t="s">
+        <v>282</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>239</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>283</v>
+      </c>
+      <c r="X32" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>291</v>
+      </c>
+      <c r="O33" t="s">
+        <v>70</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>292</v>
+      </c>
+      <c r="X33" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>295</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>296</v>
+      </c>
+      <c r="J34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s">
+        <v>299</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>300</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>301</v>
+      </c>
+      <c r="X34" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" t="s">
+        <v>307</v>
+      </c>
+      <c r="L35" t="s">
+        <v>308</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>257</v>
+      </c>
+      <c r="O35" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>309</v>
+      </c>
+      <c r="X35" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>313</v>
+      </c>
+      <c r="J36" t="s">
+        <v>314</v>
+      </c>
+      <c r="K36" t="s">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s">
+        <v>316</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>317</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>275</v>
+      </c>
+      <c r="X36" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>257</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>324</v>
+      </c>
+      <c r="X37" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>328</v>
+      </c>
+      <c r="J38" t="s">
+        <v>329</v>
+      </c>
+      <c r="K38" t="s">
+        <v>330</v>
+      </c>
+      <c r="L38" t="s">
+        <v>331</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>332</v>
+      </c>
+      <c r="O38" t="s">
+        <v>153</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>333</v>
+      </c>
+      <c r="X38" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>336</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>337</v>
+      </c>
+      <c r="J39" t="s">
+        <v>338</v>
+      </c>
+      <c r="K39" t="s">
+        <v>339</v>
+      </c>
+      <c r="L39" t="s">
+        <v>340</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>341</v>
+      </c>
+      <c r="O39" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>342</v>
+      </c>
+      <c r="X39" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>345</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>346</v>
+      </c>
+      <c r="J40" t="s">
+        <v>347</v>
+      </c>
+      <c r="K40" t="s">
+        <v>348</v>
+      </c>
+      <c r="L40" t="s">
+        <v>349</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>351</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>352</v>
+      </c>
+      <c r="J41" t="s">
+        <v>353</v>
+      </c>
+      <c r="K41" t="s">
+        <v>354</v>
+      </c>
+      <c r="L41" t="s">
+        <v>355</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>357</v>
+      </c>
+      <c r="J42" t="s">
+        <v>358</v>
+      </c>
+      <c r="K42" t="s">
+        <v>359</v>
+      </c>
+      <c r="L42" t="s">
+        <v>360</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>361</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s">
+        <v>367</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>369</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>370</v>
+      </c>
+      <c r="J44" t="s">
+        <v>371</v>
+      </c>
+      <c r="K44" t="s">
+        <v>372</v>
+      </c>
+      <c r="L44" t="s">
+        <v>373</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>374</v>
+      </c>
+      <c r="O44" t="s">
+        <v>70</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>376</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>377</v>
+      </c>
+      <c r="J45" t="s">
+        <v>378</v>
+      </c>
+      <c r="K45" t="s">
+        <v>379</v>
+      </c>
+      <c r="L45" t="s">
+        <v>380</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>381</v>
+      </c>
+      <c r="O45" t="s">
+        <v>153</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>383</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>384</v>
+      </c>
+      <c r="J46" t="s">
+        <v>385</v>
+      </c>
+      <c r="K46" t="s">
+        <v>386</v>
+      </c>
+      <c r="L46" t="s">
+        <v>387</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>388</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>390</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>391</v>
+      </c>
+      <c r="J47" t="s">
+        <v>392</v>
+      </c>
+      <c r="K47" t="s">
+        <v>393</v>
+      </c>
+      <c r="L47" t="s">
+        <v>394</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>396</v>
+      </c>
+      <c r="J48" t="s">
+        <v>397</v>
+      </c>
+      <c r="K48" t="s">
+        <v>398</v>
+      </c>
+      <c r="L48" t="s">
+        <v>399</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>400</v>
+      </c>
+      <c r="O48" t="s">
+        <v>153</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>402</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J49" t="s">
+        <v>404</v>
+      </c>
+      <c r="K49" t="s">
+        <v>405</v>
+      </c>
+      <c r="L49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>407</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_202.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_202.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="628">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,48 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r597100433-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>33456</t>
+  </si>
+  <si>
+    <t>119937</t>
+  </si>
+  <si>
+    <t>597100433</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Reservation Cancelled and Room sold to another at a higher price!!</t>
+  </si>
+  <si>
+    <t>I called to let the hotel know I was going to be checking in late. She stated she could not find my reservation and upon further examination she stated my room had been cancelled by the manager. She stated they had called me at 1519 to see if I was going to check in and when I didn't return the call by 1800 they cancelled the room. No voicemails left, no emails sent and no text messages. The first check in began at 1500. They called me 19 minutes after they opened check in and expected me to be there. The front desk person I talked to stated that all people usually are done checking in at 1500. That's funny, considering check in doesn't start until 1500. I traveled 10 hours just to find out my room had been cancelled by a money hungry manager. They were however glad to sell me a King Room for $135. I wont stay here ever, and I made sure they knew exactly, how I felt about the situation.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Farhangbb, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded July 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2018</t>
+  </si>
+  <si>
+    <t>I called to let the hotel know I was going to be checking in late. She stated she could not find my reservation and upon further examination she stated my room had been cancelled by the manager. She stated they had called me at 1519 to see if I was going to check in and when I didn't return the call by 1800 they cancelled the room. No voicemails left, no emails sent and no text messages. The first check in began at 1500. They called me 19 minutes after they opened check in and expected me to be there. The front desk person I talked to stated that all people usually are done checking in at 1500. That's funny, considering check in doesn't start until 1500. I traveled 10 hours just to find out my room had been cancelled by a money hungry manager. They were however glad to sell me a King Room for $135. I wont stay here ever, and I made sure they knew exactly, how I felt about the situation.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r591685950-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
-    <t>33456</t>
-  </si>
-  <si>
-    <t>119937</t>
-  </si>
-  <si>
     <t>591685950</t>
   </si>
   <si>
@@ -180,10 +210,10 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Farhangbb, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Farhangbb, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2018</t>
   </si>
   <si>
     <t>Place is filthy, smells bad, the staff is super rude, when asked a question they pretend they don't hear you! Please pay more money and stay else where. The sink is clogged. The fan in the restroom makes a loud noise like it's dying. Horrible way to vacationMore</t>
@@ -228,12 +258,42 @@
     <t>Travel for work by semi and my AC went out right off i-25 N. Went to a place called Brother's BBQ where I was searching for a cheap place to stay for the night. When I came out I looked to my left and found Motel6. Cheap rates, tons of restaurants nearby, and best staff I've ever encountered even from top notch hotels. Impressed and will be back again with my family next time. Only bad part was the parking lot it needs to be redone but that's me being picky.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Travel for work by semi and my AC went out right off i-25 N. Went to a place called Brother's BBQ where I was searching for a cheap place to stay for the night. When I came out I looked to my left and found Motel6. Cheap rates, tons of restaurants nearby, and best staff I've ever encountered even from top notch hotels. Impressed and will be back again with my family next time. Only bad part was the parking lot it needs to be redone but that's me being picky.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r583941905-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>583941905</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>I stayed at Motel 6 on Saturday May 27 to attend a graduation. A bit far but the only place with availability and I was pleasantly surprised by how great it was. Great staff, comfortable bed, and laundry on site. I'd recommend to anyone looking to save a few bucks. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at Motel 6 on Saturday May 27 to attend a graduation. A bit far but the only place with availability and I was pleasantly surprised by how great it was. Great staff, comfortable bed, and laundry on site. I'd recommend to anyone looking to save a few bucks. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r583390450-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>583390450</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Rough, Even by Motel 6 standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our room reeked, as did the alternate room that was offered to us. This “non-smoking” hotel clearly never bothered to fumigate or properly clean the 5th floor rooms that must have been occupied by chain smokers in the years past. Other guests looked super sketchy and some group of gals thought it would be fun to hang out by the pool and scream and laugh well beyond normal hours. Smelly throughout and questionably maintained. We should have just gone camping. The one positive comment I can offer is that the staff were pleasant, even if they were clueless about how gross the place is. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r582780700-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -303,6 +363,42 @@
     <t>From the reservation, checking to all the time to my stayed was a great experience, I been staying here a few times and sol makes my stay every time more comfortable, she speak English and Spanish perfect so for me is more convenient when she help me I def recommended to stay here :)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r577680598-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>577680598</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>At our recent stay at Hotel 6 in Greenwood Village Colorado. Sol the Front desk clerk was very nice and helpful in acquiring our room.Very friendly. The place nice and clean friendly staff. I definitely recommend staying here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r576514270-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>576514270</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Super friendly , pet friendly , clean</t>
+  </si>
+  <si>
+    <t>This is one of the most nice , clean friendly motel6 I have stayed , when you book or make your reservations make sure to ask for sol , she’s amazing , super friendly and she can either help u in English or SpanishMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>This is one of the most nice , clean friendly motel6 I have stayed , when you book or make your reservations make sure to ask for sol , she’s amazing , super friendly and she can either help u in English or SpanishMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r570010373-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -375,6 +471,39 @@
     <t>Motel 6 is a Very nice and quiet spot to relax. The rooms are VERY clean. The staff is very friendly.  Ask for Brad or sol. They make the stay VERY Pleasant and fun. Brad and sol always have a smile and are always willing to help.  The motel is close to the freeway and places to eat. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r557594081-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>557594081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satisfied customer </t>
+  </si>
+  <si>
+    <t>The rooms were very clean, as well as maintained. Staff was professional and courteous. I would recommend this motel to anyone, it’s a good place to stay. They will leave the light on for you, and service with a smile!MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were very clean, as well as maintained. Staff was professional and courteous. I would recommend this motel to anyone, it’s a good place to stay. They will leave the light on for you, and service with a smile!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r556917721-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>556917721</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>Good clean rooms with the staff made it even better</t>
+  </si>
+  <si>
+    <t>Well besides being located within walking distance to the light rail the best motel6 also has easy access to the highway which makes it a breeze to get right downtown from here. Also you have tons of stores like Target Home Depot Lowe's Payless Etc within walking distance and not to mention the countless restaurants within the vicinity. My room has always been clean and comfortable every time I stayed here. Room service does a great job all that aside though one of the biggest reasons why I continue to frequent this hotel for my needs is any time that I've ever had a problem all I would have to do is call down to the front desk and with no hesitation they would take care of me. So the manager has been outstanding to me and I would definitely recommend my family and friends here for the next stay the free coffee in the morning and free DirecTV is also A+ great place to stay that's not too expensive and you still get a great room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Well besides being located within walking distance to the light rail the best motel6 also has easy access to the highway which makes it a breeze to get right downtown from here. Also you have tons of stores like Target Home Depot Lowe's Payless Etc within walking distance and not to mention the countless restaurants within the vicinity. My room has always been clean and comfortable every time I stayed here. Room service does a great job all that aside though one of the biggest reasons why I continue to frequent this hotel for my needs is any time that I've ever had a problem all I would have to do is call down to the front desk and with no hesitation they would take care of me. So the manager has been outstanding to me and I would definitely recommend my family and friends here for the next stay the free coffee in the morning and free DirecTV is also A+ great place to stay that's not too expensive and you still get a great room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r538293842-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -444,6 +573,42 @@
     <t>It was really hard to get to the motel. I even watched as a lady tried to climb the rocks in sandals to get to the convenience store right in front of the hotel. To drive into the motel we had to go around the backside of the hotel that was next to it then cut through the small opening to get to the Motel 6. There was construction that was blocking the enterance to the lot. The room was clean and quiet the beds were comfortable. The bathroom had some black on the wall behind the door, unsure if it was mold. We just thought it was odd that every step you took in the hotel had another camera near by. Even at the front counter 2 cameras seemed to be aimed to the key pad. I thought this was odd considering the door jam in our hotel room was broken.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r502635464-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>502635464</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>An okay stay</t>
+  </si>
+  <si>
+    <t>At the time of my stay, there was construction all over the place, access was a little tricky from day to day.  The staff were friendly and helpful. Stay on the top floor, there was a family with teenagers that hung out in hall, so it was noisy. The website said it was smoke free but the halls and the room clearly smelled of smoke. Besides the smoke smell, the room was decent. The tv seemed kind of worn or it may have been their cable/satellite service, the picture was awful. The floors are hardwood, so make sure you have slippers! Although, we did get back to the room just as soon as the got done cleaning, there were still wet spots from mopping. Over all, the room was clean and this was a decent stay when on a budget. Oh, they also provide room service! We didn't try it but there was a menu on the dresser. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>At the time of my stay, there was construction all over the place, access was a little tricky from day to day.  The staff were friendly and helpful. Stay on the top floor, there was a family with teenagers that hung out in hall, so it was noisy. The website said it was smoke free but the halls and the room clearly smelled of smoke. Besides the smoke smell, the room was decent. The tv seemed kind of worn or it may have been their cable/satellite service, the picture was awful. The floors are hardwood, so make sure you have slippers! Although, we did get back to the room just as soon as the got done cleaning, there were still wet spots from mopping. Over all, the room was clean and this was a decent stay when on a budget. Oh, they also provide room service! We didn't try it but there was a menu on the dresser. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r489715604-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>489715604</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Great Comfort and hospitality!!!</t>
+  </si>
+  <si>
+    <t>I had to find an affordable hotel that was close to my job during convention month and this place fit just perfect. The staff was very friendly and for the price of the room the beds are so comfortable. If you ever stop by there ask for Brad he is the best!!!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r488927316-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -477,9 +642,6 @@
     <t>Brad and Tara were absolutely incredible. They stuck helping me out with a the problems I had with my reservation and did not stop until it was finished while still taking care of all the other guests at the same time. I will definitely be staying here again for sure. Give them a raise!!! Please ha</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r481967605-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -495,6 +657,54 @@
     <t>Me and my husband stays here and we love it. Brad the manger is a great one and so is Larry. They are both amazing at there.  Brad thank you for your great severic and Larry thank you for being a good employee. To any one looking for a good place to enjoy your stay in denver come here. They are very friendly I didn't get a picture of Brad but this Larry The rooms are amazing Thank you so much-Brittany Brothers-</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r457755002-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>457755002</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Stayed over one night in early July, no problems</t>
+  </si>
+  <si>
+    <t>Stayed overnight with a friend.   We expected a lot more expensive given the location, but got a reasonable rate ($88 or so, with various discounts)   Fortunately, this motel was very convenient to the highway, even though the traffic was insane and we had to make some creative maneuvers to find the entrance.   The office staff was nice (good coffee too) and even though there was a security guard on-premises, we never felt like this was a bad area or there were any problems.Overall, our room wasn't bad, and we had a good night's sleep.  Everything was clean and worked.   The room had a microwave and refrigerator.   Internet access was extra, though, and was an extra $3.  The wireless door keys were interesting, haven't seen that before.There was some construction in the area- which we understood, and dealt with.  Probably the worst part of the premises was what seemed like endless speed bumps throughout the parking lot- really, that was seriously overdone.Overall, not bad for an overnight stay, it was probably the best in the area for that price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Stayed overnight with a friend.   We expected a lot more expensive given the location, but got a reasonable rate ($88 or so, with various discounts)   Fortunately, this motel was very convenient to the highway, even though the traffic was insane and we had to make some creative maneuvers to find the entrance.   The office staff was nice (good coffee too) and even though there was a security guard on-premises, we never felt like this was a bad area or there were any problems.Overall, our room wasn't bad, and we had a good night's sleep.  Everything was clean and worked.   The room had a microwave and refrigerator.   Internet access was extra, though, and was an extra $3.  The wireless door keys were interesting, haven't seen that before.There was some construction in the area- which we understood, and dealt with.  Probably the worst part of the premises was what seemed like endless speed bumps throughout the parking lot- really, that was seriously overdone.Overall, not bad for an overnight stay, it was probably the best in the area for that price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r438852011-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>438852011</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>increase price</t>
+  </si>
+  <si>
+    <t>When I made the reservation online, i put down I was an AARP member and received a discount.  On arriving I was asked for my card.  I didn't have my card, because I had been there before and giving my number and assumed it was on file.  But I had a current copy of the AARP newsletter with my name and member ship number.  The person on the front desk, said, sure that was fine, But when I passed by the desk later, the man on the front desk who is black and I don't think much cared for white people, said I owed more because he did not like my AARP membership number.  When I tried to talk to him he basically told me to "pony up another $6 or get out".  I come to denver a lot and will never be  back at your motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>When I made the reservation online, i put down I was an AARP member and received a discount.  On arriving I was asked for my card.  I didn't have my card, because I had been there before and giving my number and assumed it was on file.  But I had a current copy of the AARP newsletter with my name and member ship number.  The person on the front desk, said, sure that was fine, But when I passed by the desk later, the man on the front desk who is black and I don't think much cared for white people, said I owed more because he did not like my AARP membership number.  When I tried to talk to him he basically told me to "pony up another $6 or get out".  I come to denver a lot and will never be  back at your motel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r434609917-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -564,6 +774,60 @@
     <t>The front desk was very new and pleasent. Talk with the new GM, Brian and found out that the hotel was being cleaned up with new staff.  The TV's were nice flat screens. House Keeping could have been a bit better. But  by far, it was worth the value spentMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r420516325-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>420516325</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Just fine, would stay again</t>
+  </si>
+  <si>
+    <t>Room was very clean, utilitarian for sure.  Bed was fine, tv fine, shower was good.   Refrigerator &amp; microwave there.  Inexpensive for Tech Center area.  Most sketchy thing was the other clientele.  Many restaurants close.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Room was very clean, utilitarian for sure.  Bed was fine, tv fine, shower was good.   Refrigerator &amp; microwave there.  Inexpensive for Tech Center area.  Most sketchy thing was the other clientele.  Many restaurants close.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r413152686-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>413152686</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>I was traveling through with my kids and found this place right off the freeway but, what a mistake!!  The front desk was friendly but my room had hair in almost every corner and especially on the bathroom floor!!  My daughter's side of the bed had hair on the sheet!! We all slept in the other bed but my kids didn't even want to take a shower at this place! Never again will I stay at a Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded September 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2016</t>
+  </si>
+  <si>
+    <t>I was traveling through with my kids and found this place right off the freeway but, what a mistake!!  The front desk was friendly but my room had hair in almost every corner and especially on the bathroom floor!!  My daughter's side of the bed had hair on the sheet!! We all slept in the other bed but my kids didn't even want to take a shower at this place! Never again will I stay at a Motel 6.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r396938742-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -579,9 +843,6 @@
     <t>According to a lot of reviews, this is a bad place to stay. However, we had a pleasant stay. There is road construction happening right outside, but we didn't hear any noise or were bothered by it. It is located near a lot of things as well. The room is very updated and had a modern feel. Instead of carpet, they had faux wood floors (which I liked far better), was very clean, and the bed was very comfortable. The bathroom, though small, was also updated and clean. The A/C worked very well, we had a wall thermostat that controlled the unit. I would have given this motel 6 a higher rating, but it lacked some essential amenities that I feel every motel/hotel should have. They did not provide complimentary shampoos, you had to buy it, and it also did have not a hair dryer. You have to pay for wifi. And lastly, we were told the side doors remain locked after 10 P.M. yet, when we tugged on the door (forgetting it was suppose to be locked) around 11 P.M., the door opened, so security is lacking a bit.MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded August 25, 2016</t>
   </si>
   <si>
@@ -624,6 +885,62 @@
     <t>Very busy week in the Denver Metro area. No rooms available. Motel 6 was our last resort. Very difficult intersection made worse by the construction. Room was clean and beds were comfortable, but that's about it. The sink clogged when used and the bathroom fan made a hideous metal-on-metal sound. The internet was virtually non-existent. Never available when we needed it--like to check-in for our flight.  No computer with printer made available for printing boarding passes. Small things could make this motel more appealing. Did see somthing that I have never seen before:  a guest on an upper floor had dropped the world's longest extension cord out his window and it was plugged into the front of his truck!  That's something you don't see everywhere.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r394130052-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>394130052</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Everything was sold out.</t>
+  </si>
+  <si>
+    <t>Ended up here as everything in the Denver area was sold out. Definitely would not have been my first choice. It's right near a construction area so all guests were asked to sign a form stating they would not ask for compensation due to the noise; that was a first! The AC unit was a bit noisy which was a good thing! Bathroom tiny. No hairdryer in the room. There was a fridge and microwave in the room although I never used them. Parking is a little crazy getting into the lot. Guest must pay 2.99 per 24 hr time for internet usage which is minimal at best.MoreShow less</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Ended up here as everything in the Denver area was sold out. Definitely would not have been my first choice. It's right near a construction area so all guests were asked to sign a form stating they would not ask for compensation due to the noise; that was a first! The AC unit was a bit noisy which was a good thing! Bathroom tiny. No hairdryer in the room. There was a fridge and microwave in the room although I never used them. Parking is a little crazy getting into the lot. Guest must pay 2.99 per 24 hr time for internet usage which is minimal at best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r392180685-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>392180685</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Not the Worst Motel I've Stayed At</t>
+  </si>
+  <si>
+    <t>That honor goes to the Y Not Inn in Burley ID several years ago. However this motel fails the basic requirement; while clean, the bed was very uncomfortable: my back hurt more in the morning than it did after a full day of moving.
+I have pleasant memories of staying at Motel 6's as a kid on road trips. They were always clean and attractive.  While the room itself was clean, neither it nor the rest of the hotel was attractive.  Decor was stuck somewhere in the 70's.  The hallways and the elevator smelled like rancid Brussels Sprouts (no, even though this is Colorado, it wasn't "that" smell...)
+The staff, for the most part, was very friendly. but I wasn't fond of the hotel policy to require payment in advance.  What's more, the I25/Arapahoe Rd interchange is under construction through late 2017:  they make you sign a waiver that you will not complain about the noise, and that they will not refund because of the noise.
+Free WiFi was not worth the price.  The seem to throttle it to zero if you exceed a data limit, I reached mine 20 minutes into a Netflix show, and I could not connect for the rest of the day.  Other days it was simply flaky and slow.  I did not try for the $2.99 unlimited access because I didn't know about it until I checked out.
+The air conditioning did not work when...That honor goes to the Y Not Inn in Burley ID several years ago. However this motel fails the basic requirement; while clean, the bed was very uncomfortable: my back hurt more in the morning than it did after a full day of moving.I have pleasant memories of staying at Motel 6's as a kid on road trips. They were always clean and attractive.  While the room itself was clean, neither it nor the rest of the hotel was attractive.  Decor was stuck somewhere in the 70's.  The hallways and the elevator smelled like rancid Brussels Sprouts (no, even though this is Colorado, it wasn't "that" smell...)The staff, for the most part, was very friendly. but I wasn't fond of the hotel policy to require payment in advance.  What's more, the I25/Arapahoe Rd interchange is under construction through late 2017:  they make you sign a waiver that you will not complain about the noise, and that they will not refund because of the noise.Free WiFi was not worth the price.  The seem to throttle it to zero if you exceed a data limit, I reached mine 20 minutes into a Netflix show, and I could not connect for the rest of the day.  Other days it was simply flaky and slow.  I did not try for the $2.99 unlimited access because I didn't know about it until I checked out.The air conditioning did not work when I arrived, on the hottest day in 2 years.  I'm glad I didn't bother reporting it that night, because when I did report it the next morning, I was bombarded with a litany of excuses for why they might not be able to fix it.  To be sure it was fixed when I got back that evening, but professional hotel owners don't give excuses, at least not up front.The low price does tend to attract a certain clientele.  In the evenings there were folks wandering the halls with no shirts on (but their baseball caps were on!  Backwards of course.)  And in the morning there were guys out in the lot working on their cars.  Place was reasonably quiet at night, but day time brought out the noisy cars.Wait, maybe this does qualify as the worst motel I've ever stayed at!I do not recommend this area at all until the road work is done.  It is hard to get to any of the businesses.  But in any case, I don't recommend this motel.  Spend a few more dollars and go next door to the Best Western Plus, they have GOT to be better.MoreShow less</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2016</t>
+  </si>
+  <si>
+    <t>That honor goes to the Y Not Inn in Burley ID several years ago. However this motel fails the basic requirement; while clean, the bed was very uncomfortable: my back hurt more in the morning than it did after a full day of moving.
+I have pleasant memories of staying at Motel 6's as a kid on road trips. They were always clean and attractive.  While the room itself was clean, neither it nor the rest of the hotel was attractive.  Decor was stuck somewhere in the 70's.  The hallways and the elevator smelled like rancid Brussels Sprouts (no, even though this is Colorado, it wasn't "that" smell...)
+The staff, for the most part, was very friendly. but I wasn't fond of the hotel policy to require payment in advance.  What's more, the I25/Arapahoe Rd interchange is under construction through late 2017:  they make you sign a waiver that you will not complain about the noise, and that they will not refund because of the noise.
+Free WiFi was not worth the price.  The seem to throttle it to zero if you exceed a data limit, I reached mine 20 minutes into a Netflix show, and I could not connect for the rest of the day.  Other days it was simply flaky and slow.  I did not try for the $2.99 unlimited access because I didn't know about it until I checked out.
+The air conditioning did not work when...That honor goes to the Y Not Inn in Burley ID several years ago. However this motel fails the basic requirement; while clean, the bed was very uncomfortable: my back hurt more in the morning than it did after a full day of moving.I have pleasant memories of staying at Motel 6's as a kid on road trips. They were always clean and attractive.  While the room itself was clean, neither it nor the rest of the hotel was attractive.  Decor was stuck somewhere in the 70's.  The hallways and the elevator smelled like rancid Brussels Sprouts (no, even though this is Colorado, it wasn't "that" smell...)The staff, for the most part, was very friendly. but I wasn't fond of the hotel policy to require payment in advance.  What's more, the I25/Arapahoe Rd interchange is under construction through late 2017:  they make you sign a waiver that you will not complain about the noise, and that they will not refund because of the noise.Free WiFi was not worth the price.  The seem to throttle it to zero if you exceed a data limit, I reached mine 20 minutes into a Netflix show, and I could not connect for the rest of the day.  Other days it was simply flaky and slow.  I did not try for the $2.99 unlimited access because I didn't know about it until I checked out.The air conditioning did not work when I arrived, on the hottest day in 2 years.  I'm glad I didn't bother reporting it that night, because when I did report it the next morning, I was bombarded with a litany of excuses for why they might not be able to fix it.  To be sure it was fixed when I got back that evening, but professional hotel owners don't give excuses, at least not up front.The low price does tend to attract a certain clientele.  In the evenings there were folks wandering the halls with no shirts on (but their baseball caps were on!  Backwards of course.)  And in the morning there were guys out in the lot working on their cars.  Place was reasonably quiet at night, but day time brought out the noisy cars.Wait, maybe this does qualify as the worst motel I've ever stayed at!I do not recommend this area at all until the road work is done.  It is hard to get to any of the businesses.  But in any case, I don't recommend this motel.  Spend a few more dollars and go next door to the Best Western Plus, they have GOT to be better.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r390190965-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -691,6 +1008,60 @@
   </si>
   <si>
     <t>Before I booked the room, I had read all the reviews and it was hard for me to decide on this place, but this changed soon after I entered the motel. The front desk was very courteous. I think the management has heard their customers out. They have radio frequency locks that do not need to reprogrammed every day unlike many motels in this price range. I also noticed that they were installing HD TV Channels. Will definitely come back to this motel. The location is great and the room was very clean. I checked the price on Tripadvisor and found it to be the cheapest by $21 than the next motel. My thumbs up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r365550385-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>365550385</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>The place was quiet; staff goes above and beyond to make sure your needs are met... In front you have Ronnette Mathews, Oscar Aranda, and Chris!! Thank you for the great week. Will see you soon...Rooms are spacious and beds are so very comfortable... I liked how it is centrally located.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>The place was quiet; staff goes above and beyond to make sure your needs are met... In front you have Ronnette Mathews, Oscar Aranda, and Chris!! Thank you for the great week. Will see you soon...Rooms are spacious and beds are so very comfortable... I liked how it is centrally located.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r365012763-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>365012763</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>EXCELLENT EMPLOYEE.....</t>
+  </si>
+  <si>
+    <t>The young lady that assisted me and my husband on a consistent basis was not only polite, she maintained excellent professionalism and hospitality. She went above and beyond her position and it really means alot to us because she was always willing too. Ronnie your are an honest, humble, and genuinely kind. Thank you for being an asset to our lives and an Awesome Employee who exceeds expectations and you put a whole meaning to the word CUSTOMER SERVICE. THANK YOU MOTEL 6 (RONNIE)S&amp;THILLMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>ap72denver, Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2016</t>
+  </si>
+  <si>
+    <t>The young lady that assisted me and my husband on a consistent basis was not only polite, she maintained excellent professionalism and hospitality. She went above and beyond her position and it really means alot to us because she was always willing too. Ronnie your are an honest, humble, and genuinely kind. Thank you for being an asset to our lives and an Awesome Employee who exceeds expectations and you put a whole meaning to the word CUSTOMER SERVICE. THANK YOU MOTEL 6 (RONNIE)S&amp;THILLMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r352716475-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
@@ -782,6 +1153,60 @@
     <t>Television didn't work and they wouldn't bring us a new one. An extra pillow was too much to ask for. Had to go to the front desk at least twice a day because the room keys don't work. Drug deals going on in the parking lot. A real dump...don't stay here!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r326938550-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>326938550</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good experience </t>
+  </si>
+  <si>
+    <t>I have some personal issues and had to move my family in to motel 6 and we have had great relationships with the staff they have been very helpful I have really had no trouble with anyone or anything here and the rooms are niceMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>ap72denver, Public Relations Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>I have some personal issues and had to move my family in to motel 6 and we have had great relationships with the staff they have been very helpful I have really had no trouble with anyone or anything here and the rooms are niceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r322083049-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>322083049</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Dirty and smells</t>
+  </si>
+  <si>
+    <t>Although the staff was pleasant and helpful which is always a nice way to begin your stay at a hotel, the halls smelled and the room smelled.  This is a no smoking hotel but it still reeked.  After we checked in and went to get our bags, there was fresh smoke down the hallway to our room.  The room smell was not so bad as the halls.  Rooms, specifically the bathroom was dirty, hair around the corners of the tub and toilet.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Denver South - South Tech Center, responded to this reviewResponded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Although the staff was pleasant and helpful which is always a nice way to begin your stay at a hotel, the halls smelled and the room smelled.  This is a no smoking hotel but it still reeked.  After we checked in and went to get our bags, there was fresh smoke down the hallway to our room.  The room smell was not so bad as the halls.  Rooms, specifically the bathroom was dirty, hair around the corners of the tub and toilet.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r321751664-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -858,6 +1283,48 @@
   </si>
   <si>
     <t>We have stayed at a few motel 6 here in Denver, and this 1 here in greenwood village has been by far our favorite. It's VERY clean, quiet &amp; the staff is extremely friendly &amp; helpful. Patrick and Perry are both very on top of things. Sol who I believe is the day time manager was also very Nice. I noticed a few bad reviews on here, they must have been in a past or from a hateful customer because honestly as many times as I have stayed here and I have NEVER experienced anything negative. If there was ever a complaint they fixed it &amp; made up for it immediately. If your not looking to pay an arm &amp; a leg and are wanting to be satisfied with your stay at a clean well kept hotel than this is definitely a go-to!!! Favorite motel 6 in Denver. Good job to whoever is runnen this show!! -AliMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r306487144-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>306487144</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Good price, nice pool</t>
+  </si>
+  <si>
+    <t>Good price, not too noisy. Clean pool, needs little facelift. Close to food, shops. Parking is decent. Front desk not always staffed, location easy to get to. Decent option for the price. You get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>ap72denver, General Manager at Motel 6 Denver South - South Tech Center, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Good price, not too noisy. Clean pool, needs little facelift. Close to food, shops. Parking is decent. Front desk not always staffed, location easy to get to. Decent option for the price. You get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r305316339-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>305316339</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Elevator broken</t>
+  </si>
+  <si>
+    <t>Staff overall was very nice. At times could not find anyone at front desk!  Room was nice.  Requested 1st floor for dog two weeks ahead - got 4th Floor.  Otherwise, air worked great, had small fridge and microwave in room -- was happy with room other than would have liked a hair dryer as we stayed two weeks.  Main complaint -- front elevator broken 3 times while we were there -- back elevator broken 2 times -- ridiculous!  Also, would be nice if ice machine was on each floor since elevator was broken and had to trek down steps with a bad knee to get ice.  A little noisy as workmen were replacing tubs on our floor.  Overall, though, a good price and will probably stay there again. Saw some complaints about workmen but actually felt safer with workmen around all day. Some locals are questionable. It is nice the motel provides waste cans and bags for dog waste in yard. Too bad half the people staying there do not use them and let their dogs go wherever and not pick it up! I am sure the hotel has complaints about some of the people staying there also!MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff overall was very nice. At times could not find anyone at front desk!  Room was nice.  Requested 1st floor for dog two weeks ahead - got 4th Floor.  Otherwise, air worked great, had small fridge and microwave in room -- was happy with room other than would have liked a hair dryer as we stayed two weeks.  Main complaint -- front elevator broken 3 times while we were there -- back elevator broken 2 times -- ridiculous!  Also, would be nice if ice machine was on each floor since elevator was broken and had to trek down steps with a bad knee to get ice.  A little noisy as workmen were replacing tubs on our floor.  Overall, though, a good price and will probably stay there again. Saw some complaints about workmen but actually felt safer with workmen around all day. Some locals are questionable. It is nice the motel provides waste cans and bags for dog waste in yard. Too bad half the people staying there do not use them and let their dogs go wherever and not pick it up! I am sure the hotel has complaints about some of the people staying there also!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r300439336-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
@@ -940,6 +1407,48 @@
 When I asked her in front of the cops exactly what the reason was for my eviction, she said, "Because you left your dog alone in the room."  I asked, "There is no other reason?"  She shook her head slowly and said "No."  First of all, leaving a pet alone in a room is not grounds for eviction.  Second, there was no complaint about my dog by anybody.  Third, my dog is extremely meek and NEVER barks inside a hotel...On a Monday, I got a quotation from one hotel employee, $1,280.06 for twenty-nine (29) nights' stay.  Two days later, I confirmed that rate and that rental period with another hotel employee, checked in, and paid the entire amount up front.  Ten days later, the general manager told me that she was going to have to raise my rate, by about 50%!  I told her that her hotel had already agreed to rent my room to me for a specific amount of money and for a specific period of time, and had been paid for it, and that we could discuss it after twenty-nine days had elapsed.  Within two or three hours, she slipped a letter under my door ordering me to vacate the premises the following morning, for no specified reason.  The following day, she lied to the cops, saying that I had refused to pay for the previous night and that I was refusing to leave the hotel.When I asked her in front of the cops exactly what the reason was for my eviction, she said, "Because you left your dog alone in the room."  I asked, "There is no other reason?"  She shook her head slowly and said "No."  First of all, leaving a pet alone in a room is not grounds for eviction.  Second, there was no complaint about my dog by anybody.  Third, my dog is extremely meek and NEVER barks inside a hotel room unless I am there with her and somebody knocks on the door.  So even if the general manager had claimed that there had been a complaint, I would not have believed her.So they kicked out a paid-up guest who had broken no rule and committed no crime, yet meanwhile there is marijuana being smoked constantly on the premises.  The police told me that while marijuana possession is legal in Colorado, smoking it in public is NOT legal.  Two or three times, I just walked down the hallway and could smell it.  One time, I walked by a room and a guy opened his door, allowing a fog of nasty marijuana smoke to escape into the hallway.  And three different times, there were folks openly smoking joints by the pool.  This is definitely not a place to bring the kids, unless you want them exposed to marijuana smoke.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r293054658-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>293054658</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Watch out</t>
+  </si>
+  <si>
+    <t>The staff are very friendly, that's one good thing. The motel has a dirty feel. And there are some unsavory people here. Every day you have to reprogram your key, and when I've done so I just had to say the room number. That's a scary thought because how do they know that's my room? There is a pool but it's freezing cold. But what do you expect? It's a cheap hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver South - South Tech Center, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>The staff are very friendly, that's one good thing. The motel has a dirty feel. And there are some unsavory people here. Every day you have to reprogram your key, and when I've done so I just had to say the room number. That's a scary thought because how do they know that's my room? There is a pool but it's freezing cold. But what do you expect? It's a cheap hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r284054089-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>284054089</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay!!</t>
+  </si>
+  <si>
+    <t>Staff is always helpful, friendly, and great...especially Neville..funny guy!! The room is always clean and neat.....renovations being done are perfect!! Pet friendly, kid friendly....pool is clean and well maintained. Close to shopping and dining......cheapest rates for the area!!! Would gladly recommend this Motel 6 to anyone visiting Denver!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff is always helpful, friendly, and great...especially Neville..funny guy!! The room is always clean and neat.....renovations being done are perfect!! Pet friendly, kid friendly....pool is clean and well maintained. Close to shopping and dining......cheapest rates for the area!!! Would gladly recommend this Motel 6 to anyone visiting Denver!! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r282627589-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -1009,6 +1518,54 @@
     <t>We have stayed at plenty of Motel 6's over the years. This will be the last time. This was THE biggest dive we have EVER stayed at, and for a top-price of $74. Read all the other bad reviews for the details. It's very dirty in all the common areas and filled with shady pot-smoking people. The rooms wreak of cigarette smoke. We had a 2 queen 'modern' room on the 3rd floor that had pergo-type flooring that was scary to walk on without shoes. The beds were way too soft and uncomfortable. No coffee pots or even hot water for tea anywhere. No table or chair to sit at. No free Wifi (you have to pay $3). The maids did the best they could with dumpy rooms. We spent $20 more to stay at Quality Inn Tech Ctr, which was 1000x's nicer, cleaner, all the amenities.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r278949158-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>278949158</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>smelly</t>
+  </si>
+  <si>
+    <t>We walked into the nonsmoking room and it smelled just like someone had just lit a cigarette, They make you sign a waiver that if you smoke in the room they will charge you 250 dollar clean up and the whole hotel smells of cigarettes. Very thin walls and very noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver South - South Tech Center, responded to this reviewResponded June 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2015</t>
+  </si>
+  <si>
+    <t>We walked into the nonsmoking room and it smelled just like someone had just lit a cigarette, They make you sign a waiver that if you smoke in the room they will charge you 250 dollar clean up and the whole hotel smells of cigarettes. Very thin walls and very noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r270844532-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>270844532</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>cheap rates and level of cleaning.</t>
+  </si>
+  <si>
+    <t>the halls were filthy and so was the room.  People smoking cigarettes in the halls and the halls stunk like pot....it is a no smoking hotel!The desk was sticky and the chair had something on it.The first room did not have heat, the second room had heat but was no cleaner, hair in the floor of the bathroom, stuff all over the floor of the room...I did not want to be in these room without wearing my SHOES!The employees were very nice and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver South - South Tech Center, responded to this reviewResponded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2015</t>
+  </si>
+  <si>
+    <t>the halls were filthy and so was the room.  People smoking cigarettes in the halls and the halls stunk like pot....it is a no smoking hotel!The desk was sticky and the chair had something on it.The first room did not have heat, the second room had heat but was no cleaner, hair in the floor of the bathroom, stuff all over the floor of the room...I did not want to be in these room without wearing my SHOES!The employees were very nice and friendly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r266517526-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -1055,9 +1612,6 @@
   </si>
   <si>
     <t>ap72denver, Owner at Motel 6 Denver South - South Tech Center, responded to this reviewResponded June 11, 2015</t>
-  </si>
-  <si>
-    <t>Responded June 11, 2015</t>
   </si>
   <si>
     <t>I read all the comments and was really not so sure about this place. I was staying at the one in lakewood and that one is ghetto compared to this one. The rooms are bigger here and they have a bath tub the building looks old but the rooms are clean my bed was softer that the other place and they also have a fridge and microwave in the room with also a flat screen tv. The lady at the front desk was very nice I will be stayin here again..More</t>
@@ -1087,6 +1641,46 @@
 When we told the front desk clerk about the room and that we were given a false representation of what we were paying for, she got us another non-smoking room to try...My husband and I are traveling from Alabama and, since this hotel was cheap and LOOKED pretty nice from the pictures, decided to give it a try. Sorry if this is a novel but I want everyone to know the kind of hotel you're booking!! First of all, the woman at reservations told us that the entire hotel was updated in 2012.. Vessel sinks, platform beds, nice TV... And also that our room was going to be non-smoking. Since all of that sounded great, we went ahead and booked the reservation. Never doing that again. Once we got to the hotel, we noticed a bunch of sketchy-looking people hanging around outside. Walked into the hotel and was overwhelmed by this TERRIBLE odor... But at this point we were still hopeful. Got to our "non smoking" room and it REEKED of cigarettes so bad that the person who cleaned it had left the window open. The beds were actually clean, although none of the "updates" had been done but it was just SO smelly... It seriously smelled like about 20 people had been smoking in there. My husband is also allergic to the smell of cigarettes, so we decided to go downstairs and try to get our money back.  When we told the front desk clerk about the room and that we were given a false representation of what we were paying for, she got us another non-smoking room to try out. We were happy about that, but this was the nail in the coffin.. On the way to our second room, this guy (who looked like the crackhead version of Sisqo) with a beer in one hand and a dirty bottle of screws in the other basically harassed us. We knew he was up to something because he was following us around and eyeing our stuff, which is about $1,000 worth of camping/backpacking gear. Before he could follow us into the elevator, my husband was just disgusted and turned around and asked the clerk for a refund. We didn't even enter our second room. As she's telling us there's nothing she can do, her kid comes up and starts drawing on the walls with a Sharpie! We say something and the girl says, "Oh, it's not that bad!" Not only did she act high out of her mind (giving her the benefit of the doubt.. it is Colorado) but she didn't even care that her kid was drawing on the walls?! Anyway, I don't mean to sound like I'm "above" that kind if scene but it was just horrible and felt extremely unsafe. After that, we left and found another hotel in Loveland, which felt much less like a scene from a murder. The next morning, my husband called the manager Omar to try to get his money back. Omar originally said no, but after we threatened to call guest services and my husband yelled for a few minutes, he finally gave us a refund. Im closing, I would not advise anyone to go to this hotel! It is a completely unsafe environment and they are scamming people with promises of "updates" that aren't there! We will never stay at ANY Motel 6 again. You can get a much better experience for $30 more. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r219923346-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>219923346</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>My Worst Stay of the Year (Congrats!)</t>
+  </si>
+  <si>
+    <t>My cheapest, most miserly client put me up at this Motel 6 to save money at my expense while I was working in the Denver area. Allegedly the accounts person was told: “Find a place that’s about $30/night on Priceline,” and I can believe that’s what this dump cost. Its low prices attract some of the scariest-looking inmates I’ve seen anywhere. One poor sod I spoke to in the elevator, who worked for a major insurance company, said he’d been there for two months! I’d shoot myself.
+It’s a Motel 6, so you don’t expect luxury, but I’ve stayed in plenty of Motel 6s that were decent enough. This one had a barking dog in the lobby and the internet didn’t work. I asked for help with that at the front desk and the incredibly unhelpful person on duty said: “I think it might be down,” and then shrugged her shoulders as if to say: “What do you expect me to do about it?” The air conditioner was extremely loud, and there was garbage and debris in piled around trash cans in the hallway (see photo). Uncouth-looking men wandered around the hallways at night with no shirts on. I am not exaggerating! 
+To my considerable surprise, my room was scrupulously clean and painted an oddly charming mixture of orange and cream, so I take my hat off to the cleaning staff who clearly take pride in their work, despite the...My cheapest, most miserly client put me up at this Motel 6 to save money at my expense while I was working in the Denver area. Allegedly the accounts person was told: “Find a place that’s about $30/night on Priceline,” and I can believe that’s what this dump cost. Its low prices attract some of the scariest-looking inmates I’ve seen anywhere. One poor sod I spoke to in the elevator, who worked for a major insurance company, said he’d been there for two months! I’d shoot myself.It’s a Motel 6, so you don’t expect luxury, but I’ve stayed in plenty of Motel 6s that were decent enough. This one had a barking dog in the lobby and the internet didn’t work. I asked for help with that at the front desk and the incredibly unhelpful person on duty said: “I think it might be down,” and then shrugged her shoulders as if to say: “What do you expect me to do about it?” The air conditioner was extremely loud, and there was garbage and debris in piled around trash cans in the hallway (see photo). Uncouth-looking men wandered around the hallways at night with no shirts on. I am not exaggerating! To my considerable surprise, my room was scrupulously clean and painted an oddly charming mixture of orange and cream, so I take my hat off to the cleaning staff who clearly take pride in their work, despite the dismal surroundings. There was a small fridge, microwave, ancient TV, but no hairdryer, no clock, not even a box of tissues and the furnishings were very plain. The shower was adequate. The interior of the elevator appears to have been “decorated” by abusing it with a power tool (see photo), and I assume that was an attempt to prevent graffiti. My room overlooked a kind of fetid pond that reminded me of a toxic waste dump.It is the worst place I have stayed all year (by far).MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>My cheapest, most miserly client put me up at this Motel 6 to save money at my expense while I was working in the Denver area. Allegedly the accounts person was told: “Find a place that’s about $30/night on Priceline,” and I can believe that’s what this dump cost. Its low prices attract some of the scariest-looking inmates I’ve seen anywhere. One poor sod I spoke to in the elevator, who worked for a major insurance company, said he’d been there for two months! I’d shoot myself.
+It’s a Motel 6, so you don’t expect luxury, but I’ve stayed in plenty of Motel 6s that were decent enough. This one had a barking dog in the lobby and the internet didn’t work. I asked for help with that at the front desk and the incredibly unhelpful person on duty said: “I think it might be down,” and then shrugged her shoulders as if to say: “What do you expect me to do about it?” The air conditioner was extremely loud, and there was garbage and debris in piled around trash cans in the hallway (see photo). Uncouth-looking men wandered around the hallways at night with no shirts on. I am not exaggerating! 
+To my considerable surprise, my room was scrupulously clean and painted an oddly charming mixture of orange and cream, so I take my hat off to the cleaning staff who clearly take pride in their work, despite the...My cheapest, most miserly client put me up at this Motel 6 to save money at my expense while I was working in the Denver area. Allegedly the accounts person was told: “Find a place that’s about $30/night on Priceline,” and I can believe that’s what this dump cost. Its low prices attract some of the scariest-looking inmates I’ve seen anywhere. One poor sod I spoke to in the elevator, who worked for a major insurance company, said he’d been there for two months! I’d shoot myself.It’s a Motel 6, so you don’t expect luxury, but I’ve stayed in plenty of Motel 6s that were decent enough. This one had a barking dog in the lobby and the internet didn’t work. I asked for help with that at the front desk and the incredibly unhelpful person on duty said: “I think it might be down,” and then shrugged her shoulders as if to say: “What do you expect me to do about it?” The air conditioner was extremely loud, and there was garbage and debris in piled around trash cans in the hallway (see photo). Uncouth-looking men wandered around the hallways at night with no shirts on. I am not exaggerating! To my considerable surprise, my room was scrupulously clean and painted an oddly charming mixture of orange and cream, so I take my hat off to the cleaning staff who clearly take pride in their work, despite the dismal surroundings. There was a small fridge, microwave, ancient TV, but no hairdryer, no clock, not even a box of tissues and the furnishings were very plain. The shower was adequate. The interior of the elevator appears to have been “decorated” by abusing it with a power tool (see photo), and I assume that was an attempt to prevent graffiti. My room overlooked a kind of fetid pond that reminded me of a toxic waste dump.It is the worst place I have stayed all year (by far).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r215995665-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>215995665</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Not even cheap...but cheap</t>
+  </si>
+  <si>
+    <t>Why can't we have inexpensive hotels that at least keep to their promise.  Not clean, no internet, not nice.  My husband was so disgusted, he went across the street to see if the Quality Inn had rooms (no such luck).  I don't care what you pay for a room, make it clean and nice or be the brunt of my rant on Tripadvisor.  We have stayed so many places like this that really care for their discounted rooms and we will continue to stay there.  Not here.  Nope.  You shouldn't either.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r202371448-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -1143,6 +1737,45 @@
     <t>First off I want to say that the general manager(Amar) is always very nice and helpful.. I have been staying here for several months and never had any issues, I work all the time and come back to watch tv for a little bit and go to sleep.. I've had several issues with the night clerk being very rude and disrespectful for no apparent reason, her name is Carla...I picked up my mail from the front desk one day, two days later I was doing laundry and Carla came into the laundry room and threw my mail at me, she proceeds to yell at me saying I need to check my mail more often because it had been clogging up space in the front desk for over two weeks, funny since I just picked up my two letters and everything she threw on the floor was postmarked from the day before..another day I wad getting a drink from the soda machine and Carla comes in and starts.yelling at me for doing laundry too late( I was getting a drink and had no laundry in)...today she crossed the line, for lengthy stays your room gets cleaned on tues and Friday, after working 12 hrs today I come back to my room which was not clean, three towels and a bar of soap were dropped off, floor weren't done, sink wasn't cleaned, tub wasn't cleaned,.sheets.weren't changed this past Friday or today and...First off I want to say that the general manager(Amar) is always very nice and helpful.. I have been staying here for several months and never had any issues, I work all the time and come back to watch tv for a little bit and go to sleep.. I've had several issues with the night clerk being very rude and disrespectful for no apparent reason, her name is Carla...I picked up my mail from the front desk one day, two days later I was doing laundry and Carla came into the laundry room and threw my mail at me, she proceeds to yell at me saying I need to check my mail more often because it had been clogging up space in the front desk for over two weeks, funny since I just picked up my two letters and everything she threw on the floor was postmarked from the day before..another day I wad getting a drink from the soda machine and Carla comes in and starts.yelling at me for doing laundry too late( I was getting a drink and had no laundry in)...today she crossed the line, for lengthy stays your room gets cleaned on tues and Friday, after working 12 hrs today I come back to my room which was not clean, three towels and a bar of soap were dropped off, floor weren't done, sink wasn't cleaned, tub wasn't cleaned,.sheets.weren't changed this past Friday or today and we didn't get toilet paper. I went to the front desk to kindly ask Carla for some sheets, she rudely replied, you dont need sheets cause your room was.cleaned today..I replied,.saying it wasnt cleaned, there was three towels and  bar of soap dropped of but nothing was cleaned... she called me a liar and told me to come back later if I wanted more sheets because I received them when my room was clesned today, my girlfriend said they dropped off towels and left our dirty sheets on the floor, Carla says if you dont leave the office I will call the police, meanwhile someone in the office comes out with a fresh pair of sheets for us and apologizes for Carla's attitude...I will be giving her a review on every travel website, writing corporate, and speaking with the.General manager in the morning...just.cause she.hates herlife doesn't mean she has to ruin my day, if you hate your job Carla get a new one...Very upset about the way I've been treatedMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r153537037-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>153537037</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>Horrible!</t>
+  </si>
+  <si>
+    <t>The girl at the front desk was awesome! Everything else stunk. Literally it smelled. The rooms were dirty. Toilet flushed out of the bowl. The place was down right NASTY!The towels had disgusting stains on them. YUCK!</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r141837954-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>141837954</t>
+  </si>
+  <si>
+    <t>10/02/2012</t>
+  </si>
+  <si>
+    <t>Ok stay.....bare bones hotel somewhat pricey for what it is</t>
+  </si>
+  <si>
+    <t>The hotel is located right off the highway which is good. There are several hotels within a block with a Hampton Located directly next door. I checked-in and the rate was 49.99 plus tax = 55.16 which for a Motel 6 is high (I travelled across the US for 7 weeks thus needed to stay relatively on a budget). The woman at check-in was extremely nice and was a seamless process. There is a one-way road next to the hotel which is VERY elusive in terms of signage. A cop pulled me over for going down it, as they should, but told that MANY people do the same thing as the signage is not transparent....no ticket for it which was good.The room itself was very bare bones but relatively clean. Some of the furniture was worn and the bed was extremely uncomfortable. There was a pool out back but it was closed for the season.Pros: location, service, internet speed/access (although 3.00 extra), hardwood floorsCons: beds, furniture upkeepMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>The hotel is located right off the highway which is good. There are several hotels within a block with a Hampton Located directly next door. I checked-in and the rate was 49.99 plus tax = 55.16 which for a Motel 6 is high (I travelled across the US for 7 weeks thus needed to stay relatively on a budget). The woman at check-in was extremely nice and was a seamless process. There is a one-way road next to the hotel which is VERY elusive in terms of signage. A cop pulled me over for going down it, as they should, but told that MANY people do the same thing as the signage is not transparent....no ticket for it which was good.The room itself was very bare bones but relatively clean. Some of the furniture was worn and the bed was extremely uncomfortable. There was a pool out back but it was closed for the season.Pros: location, service, internet speed/access (although 3.00 extra), hardwood floorsCons: beds, furniture upkeepMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r131699202-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -1204,6 +1837,45 @@
   </si>
   <si>
     <t>Drove from Ouray, Co. to catch a plane the next day so I got in town late. Since I was tired and only going to spend a few hours at the hotel we decided to go cheap and get a room at the Motel 6. The place looked run down but how bad could it be. We checked in and went up to the room, right away we noticed how hot the room was (the high that day was in the upper 90's). So on went the window AC unit. It,s fan started and intermitted squeeking. After about 10 minutes I went down to the desk to ask for another room. They promptly said OK but I wanted to check it out before we moved. It was on the top floor. Apparentlly this is where the party people stay because the people I pasted in the hall going in and out of rooms looked at me like I was a NARC (I am 51). Went in the room (which was as run down as the other) and it's AC unit would not even turn on. Took the key back to the desk and went back to the orginal room, no other rooms we availabe and I was too tired to go to another motel. We left the AC off all night with the room tempature in the upper 80's. We got up early and left. The good thing that came...Drove from Ouray, Co. to catch a plane the next day so I got in town late. Since I was tired and only going to spend a few hours at the hotel we decided to go cheap and get a room at the Motel 6. The place looked run down but how bad could it be. We checked in and went up to the room, right away we noticed how hot the room was (the high that day was in the upper 90's). So on went the window AC unit. It,s fan started and intermitted squeeking. After about 10 minutes I went down to the desk to ask for another room. They promptly said OK but I wanted to check it out before we moved. It was on the top floor. Apparentlly this is where the party people stay because the people I pasted in the hall going in and out of rooms looked at me like I was a NARC (I am 51). Went in the room (which was as run down as the other) and it's AC unit would not even turn on. Took the key back to the desk and went back to the orginal room, no other rooms we availabe and I was too tired to go to another motel. We left the AC off all night with the room tempature in the upper 80's. We got up early and left. The good thing that came out of this experience is that I will not try to sleep cheap again, it just ruins a great vacation. The fun photo below is the no smoking ash tray in our room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r36946284-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>36946284</t>
+  </si>
+  <si>
+    <t>08/06/2009</t>
+  </si>
+  <si>
+    <t>Great Place to Stay When Traveling With Pets</t>
+  </si>
+  <si>
+    <t>On our move from Missouri to California, we stopped here overnight because of Motel 6's awesome pet policy.  It's actually not a bad place.  The room was clean, the bed was comfortable and the proximity to the interstate was great.  Our cats really loved the large window, too.  If we're in the area again with pets, we'll definitely stay here.  And if you're needing just a basic place to sleep for the night, this would be your place.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r22564357-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>22564357</t>
+  </si>
+  <si>
+    <t>12/08/2008</t>
+  </si>
+  <si>
+    <t>My weather stop at motel 6</t>
+  </si>
+  <si>
+    <t>My family and  I was on our way home to Wyoming after seeing some family out in Colorado Springs. The weather was changing and it begain to snow. My Husband and I decided to pull into the Motel 6 for the night. From the moment we arrived at this Motel we got nothing but exceptional service. The Guest relations employee was very considerate of our accomadations for our family. When we got to our room, it was bigger and more spacious  then other motel 6 rooms i have ever been in. The bathrooms were also very clean. As a mother i was very comfortable with our choice. The Motel was a nice interior corridor right  off the highway in Greenwood Village. It was surrounded with resturants and shopping which was very convenient for my family. We were able to go to the Target accoss the street and get us some gloves and hats  for the rest of our trip in the morning, then went and had some dinner at the diner that was in the same parking lot. My husband and I were very happy that we stopped our kids and our dog were able to sleep comfortable for the rest of the night.  I would definetley come visit  this Motel again whenever i am in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>My family and  I was on our way home to Wyoming after seeing some family out in Colorado Springs. The weather was changing and it begain to snow. My Husband and I decided to pull into the Motel 6 for the night. From the moment we arrived at this Motel we got nothing but exceptional service. The Guest relations employee was very considerate of our accomadations for our family. When we got to our room, it was bigger and more spacious  then other motel 6 rooms i have ever been in. The bathrooms were also very clean. As a mother i was very comfortable with our choice. The Motel was a nice interior corridor right  off the highway in Greenwood Village. It was surrounded with resturants and shopping which was very convenient for my family. We were able to go to the Target accoss the street and get us some gloves and hats  for the rest of our trip in the morning, then went and had some dinner at the diner that was in the same parking lot. My husband and I were very happy that we stopped our kids and our dog were able to sleep comfortable for the rest of the night.  I would definetley come visit  this Motel again whenever i am in this area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d119937-r20011674-Motel_6_Denver_South_South_Tech_Center-Greenwood_Village_Colorado.html</t>
@@ -1800,12 +2472,16 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1853,7 +2529,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
@@ -1861,29 +2537,23 @@
       <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1899,7 +2569,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1908,43 +2578,49 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1960,7 +2636,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1969,25 +2645,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1999,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2021,7 +2697,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2030,25 +2706,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2060,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="Y6" t="s">
         <v>86</v>
@@ -2103,13 +2779,13 @@
         <v>91</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2120,14 +2796,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>92</v>
-      </c>
-      <c r="X7" t="s">
-        <v>93</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -2143,58 +2815,52 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>96</v>
-      </c>
-      <c r="J8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -2210,34 +2876,34 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>103</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>108</v>
-      </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2249,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -2271,7 +2937,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2280,25 +2946,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2310,13 +2976,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -2332,34 +2998,34 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
         <v>119</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" t="s">
-        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2373,7 +3039,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -2389,7 +3055,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2398,47 +3064,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -2454,7 +3116,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2463,32 +3125,38 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
@@ -2499,7 +3167,7 @@
         <v>133</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -2515,7 +3183,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2524,45 +3192,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>117</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>141</v>
+      </c>
+      <c r="X14" t="s">
+        <v>142</v>
+      </c>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
@@ -2578,7 +3244,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2587,25 +3253,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2616,10 +3282,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>141</v>
+      </c>
+      <c r="X15" t="s">
+        <v>142</v>
+      </c>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -2635,34 +3305,34 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
         <v>154</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>155</v>
-      </c>
-      <c r="J16" t="s">
-        <v>156</v>
-      </c>
-      <c r="K16" t="s">
-        <v>157</v>
-      </c>
-      <c r="L16" t="s">
-        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2673,10 +3343,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>141</v>
+      </c>
+      <c r="X16" t="s">
+        <v>142</v>
+      </c>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
@@ -2692,31 +3366,35 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
         <v>159</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>160</v>
       </c>
-      <c r="J17" t="s">
-        <v>161</v>
-      </c>
-      <c r="K17" t="s">
-        <v>162</v>
-      </c>
-      <c r="L17" t="s">
-        <v>163</v>
-      </c>
       <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s">
+        <v>149</v>
+      </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -2729,7 +3407,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
@@ -2745,34 +3423,34 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
         <v>165</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>166</v>
-      </c>
-      <c r="J18" t="s">
-        <v>167</v>
-      </c>
-      <c r="K18" t="s">
-        <v>168</v>
-      </c>
-      <c r="L18" t="s">
-        <v>169</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2783,14 +3461,10 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>171</v>
-      </c>
-      <c r="X18" t="s">
-        <v>172</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
@@ -2806,56 +3480,56 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>174</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J19" t="s">
-        <v>176</v>
-      </c>
-      <c r="K19" t="s">
-        <v>177</v>
-      </c>
-      <c r="L19" t="s">
-        <v>178</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>170</v>
-      </c>
       <c r="O19" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="X19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
@@ -2871,58 +3545,52 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
         <v>182</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
-        <v>183</v>
-      </c>
-      <c r="J20" t="s">
-        <v>184</v>
-      </c>
-      <c r="K20" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" t="s">
-        <v>186</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O20" t="s">
         <v>63</v>
       </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="X20" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
@@ -2938,7 +3606,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2947,25 +3615,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2977,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="X21" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
@@ -2999,56 +3667,44 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
         <v>196</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>197</v>
-      </c>
-      <c r="J22" t="s">
-        <v>198</v>
-      </c>
-      <c r="K22" t="s">
-        <v>199</v>
-      </c>
-      <c r="L22" t="s">
-        <v>200</v>
-      </c>
       <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>187</v>
-      </c>
-      <c r="O22" t="s">
-        <v>70</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>188</v>
-      </c>
-      <c r="X22" t="s">
-        <v>189</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
@@ -3064,46 +3720,46 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" t="s">
+        <v>201</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>202</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>203</v>
-      </c>
-      <c r="J23" t="s">
-        <v>204</v>
-      </c>
-      <c r="K23" t="s">
-        <v>205</v>
-      </c>
-      <c r="L23" t="s">
-        <v>206</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s">
-        <v>187</v>
-      </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3111,7 +3767,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
@@ -3127,7 +3783,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3136,49 +3792,39 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>214</v>
-      </c>
-      <c r="X24" t="s">
-        <v>215</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
@@ -3194,7 +3840,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3203,49 +3849,39 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>222</v>
-      </c>
-      <c r="X25" t="s">
-        <v>223</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
@@ -3261,7 +3897,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3270,49 +3906,43 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>2</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>231</v>
-      </c>
-      <c r="X26" t="s">
-        <v>232</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
@@ -3328,7 +3958,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3337,32 +3967,32 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="J27" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>1</v>
@@ -3371,13 +4001,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="X27" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28">
@@ -3393,7 +4023,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3402,49 +4032,35 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
-      <c r="N28" t="s">
-        <v>248</v>
-      </c>
-      <c r="O28" t="s">
-        <v>70</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>1</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>249</v>
-      </c>
-      <c r="X28" t="s">
-        <v>250</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29">
@@ -3460,7 +4076,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3469,25 +4085,25 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O29" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3499,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="X29" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="Y29" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30">
@@ -3521,7 +4137,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3530,49 +4146,47 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="J30" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="K30" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="O30" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="X30" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31">
@@ -3588,7 +4202,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3597,25 +4211,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="J31" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="K31" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3627,13 +4241,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="X31" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="Y31" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
@@ -3649,7 +4263,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3658,43 +4272,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="K32" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s">
         <v>63</v>
       </c>
-      <c r="P32" t="s"/>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="X32" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="Y32" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
@@ -3710,7 +4330,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3719,49 +4339,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="J33" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="O33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="X33" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="Y33" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
@@ -3777,7 +4397,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3786,49 +4406,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="K34" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>1</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="X34" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="Y34" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35">
@@ -3844,7 +4458,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3853,49 +4467,47 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="J35" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="O35" t="s">
-        <v>70</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="X35" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="Y35" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
@@ -3911,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3920,43 +4532,49 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="J36" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="X36" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="Y36" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37">
@@ -3972,7 +4590,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3981,49 +4599,47 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="J37" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="O37" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="X37" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="Y37" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38">
@@ -4039,7 +4655,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4048,43 +4664,45 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="J38" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="K38" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>218</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
         <v>1</v>
       </c>
-      <c r="N38" t="s">
-        <v>332</v>
-      </c>
-      <c r="O38" t="s">
-        <v>153</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>333</v>
-      </c>
-      <c r="X38" t="s">
-        <v>334</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39">
@@ -4100,7 +4718,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4109,43 +4727,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="J39" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="K39" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="O39" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="X39" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="Y39" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40">
@@ -4161,7 +4785,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4170,45 +4794,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="J40" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="K40" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>316</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>325</v>
+      </c>
+      <c r="X40" t="s">
+        <v>326</v>
+      </c>
       <c r="Y40" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
@@ -4224,7 +4852,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4233,45 +4861,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="J41" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="K41" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="L41" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>333</v>
+      </c>
+      <c r="O41" t="s">
+        <v>149</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>334</v>
+      </c>
+      <c r="X41" t="s">
+        <v>335</v>
+      </c>
       <c r="Y41" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42">
@@ -4287,7 +4913,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4296,49 +4922,43 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="J42" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="K42" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="L42" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>3</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>343</v>
+      </c>
+      <c r="X42" t="s">
+        <v>344</v>
+      </c>
       <c r="Y42" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43">
@@ -4354,7 +4974,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4363,45 +4983,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="J43" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>351</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S43" t="n">
         <v>3</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>352</v>
+      </c>
+      <c r="X43" t="s">
+        <v>353</v>
+      </c>
       <c r="Y43" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44">
@@ -4417,7 +5041,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4426,49 +5050,47 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="J44" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="K44" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="L44" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="O44" t="s">
-        <v>70</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>361</v>
+      </c>
+      <c r="X44" t="s">
+        <v>362</v>
+      </c>
       <c r="Y44" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45">
@@ -4484,7 +5106,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4493,38 +5115,34 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="J45" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="K45" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="L45" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="O45" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
       </c>
-      <c r="Q45" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
         <v>3</v>
       </c>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>1</v>
@@ -4532,10 +5150,14 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>370</v>
+      </c>
+      <c r="X45" t="s">
+        <v>371</v>
+      </c>
       <c r="Y45" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46">
@@ -4551,7 +5173,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4560,49 +5182,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="J46" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="K46" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="O46" t="s">
         <v>63</v>
       </c>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>1</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>379</v>
+      </c>
+      <c r="X46" t="s">
+        <v>380</v>
+      </c>
       <c r="Y46" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47">
@@ -4618,7 +5234,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4627,45 +5243,49 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="J47" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K47" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="L47" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
-      </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>387</v>
+      </c>
+      <c r="O47" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>388</v>
+      </c>
+      <c r="X47" t="s">
+        <v>389</v>
+      </c>
       <c r="Y47" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48">
@@ -4681,58 +5301,52 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>391</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>392</v>
+      </c>
+      <c r="J48" t="s">
+        <v>393</v>
+      </c>
+      <c r="K48" t="s">
+        <v>394</v>
+      </c>
+      <c r="L48" t="s">
         <v>395</v>
-      </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
-        <v>396</v>
-      </c>
-      <c r="J48" t="s">
-        <v>397</v>
-      </c>
-      <c r="K48" t="s">
-        <v>398</v>
-      </c>
-      <c r="L48" t="s">
-        <v>399</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O48" t="s">
-        <v>153</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>3</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>3</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>397</v>
+      </c>
+      <c r="X48" t="s">
+        <v>398</v>
+      </c>
       <c r="Y48" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49">
@@ -4748,56 +5362,2063 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>400</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>401</v>
+      </c>
+      <c r="J49" t="s">
         <v>402</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
         <v>403</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>404</v>
       </c>
-      <c r="K49" t="s">
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
         <v>405</v>
       </c>
-      <c r="L49" t="s">
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
         <v>406</v>
       </c>
-      <c r="M49" t="n">
+      <c r="X49" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>409</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>410</v>
+      </c>
+      <c r="J50" t="s">
+        <v>411</v>
+      </c>
+      <c r="K50" t="s">
+        <v>412</v>
+      </c>
+      <c r="L50" t="s">
+        <v>413</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>405</v>
+      </c>
+      <c r="O50" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>414</v>
+      </c>
+      <c r="X50" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>417</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>418</v>
+      </c>
+      <c r="J51" t="s">
+        <v>419</v>
+      </c>
+      <c r="K51" t="s">
+        <v>420</v>
+      </c>
+      <c r="L51" t="s">
+        <v>421</v>
+      </c>
+      <c r="M51" t="n">
         <v>3</v>
       </c>
-      <c r="N49" t="s">
-        <v>407</v>
-      </c>
-      <c r="O49" t="s">
+      <c r="N51" t="s">
+        <v>396</v>
+      </c>
+      <c r="O51" t="s">
+        <v>149</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>422</v>
+      </c>
+      <c r="X51" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>425</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>426</v>
+      </c>
+      <c r="J52" t="s">
+        <v>427</v>
+      </c>
+      <c r="K52" t="s">
+        <v>428</v>
+      </c>
+      <c r="L52" t="s">
+        <v>429</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>360</v>
+      </c>
+      <c r="O52" t="s">
         <v>63</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
         <v>4</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>422</v>
+      </c>
+      <c r="X52" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>431</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>432</v>
+      </c>
+      <c r="J53" t="s">
+        <v>433</v>
+      </c>
+      <c r="K53" t="s">
+        <v>434</v>
+      </c>
+      <c r="L53" t="s">
+        <v>435</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>360</v>
+      </c>
+      <c r="O53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>436</v>
+      </c>
+      <c r="X53" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>439</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>440</v>
+      </c>
+      <c r="J54" t="s">
+        <v>441</v>
+      </c>
+      <c r="K54" t="s">
+        <v>442</v>
+      </c>
+      <c r="L54" t="s">
+        <v>443</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>444</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>445</v>
+      </c>
+      <c r="X54" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>448</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>449</v>
+      </c>
+      <c r="J55" t="s">
+        <v>450</v>
+      </c>
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" t="s">
+        <v>452</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>453</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
         <v>3</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>454</v>
+      </c>
+      <c r="X55" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>457</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>458</v>
+      </c>
+      <c r="J56" t="s">
+        <v>459</v>
+      </c>
+      <c r="K56" t="s">
+        <v>460</v>
+      </c>
+      <c r="L56" t="s">
+        <v>461</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>453</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>462</v>
+      </c>
+      <c r="X56" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>465</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>466</v>
+      </c>
+      <c r="J57" t="s">
+        <v>467</v>
+      </c>
+      <c r="K57" t="s">
+        <v>468</v>
+      </c>
+      <c r="L57" t="s">
+        <v>469</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>396</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>414</v>
+      </c>
+      <c r="X57" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>471</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>472</v>
+      </c>
+      <c r="J58" t="s">
+        <v>473</v>
+      </c>
+      <c r="K58" t="s">
+        <v>474</v>
+      </c>
+      <c r="L58" t="s">
+        <v>475</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>396</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>476</v>
+      </c>
+      <c r="X58" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>479</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>480</v>
+      </c>
+      <c r="J59" t="s">
+        <v>481</v>
+      </c>
+      <c r="K59" t="s">
+        <v>482</v>
+      </c>
+      <c r="L59" t="s">
+        <v>483</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>484</v>
+      </c>
+      <c r="O59" t="s">
+        <v>73</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>414</v>
+      </c>
+      <c r="X59" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>486</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>487</v>
+      </c>
+      <c r="J60" t="s">
+        <v>488</v>
+      </c>
+      <c r="K60" t="s">
+        <v>489</v>
+      </c>
+      <c r="L60" t="s">
+        <v>490</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>396</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
         <v>3</v>
       </c>
-      <c r="S49" t="n">
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>491</v>
+      </c>
+      <c r="X60" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>494</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>495</v>
+      </c>
+      <c r="J61" t="s">
+        <v>496</v>
+      </c>
+      <c r="K61" t="s">
+        <v>497</v>
+      </c>
+      <c r="L61" t="s">
+        <v>498</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>396</v>
+      </c>
+      <c r="O61" t="s">
+        <v>73</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>499</v>
+      </c>
+      <c r="X61" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>502</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>503</v>
+      </c>
+      <c r="J62" t="s">
+        <v>504</v>
+      </c>
+      <c r="K62" t="s">
+        <v>505</v>
+      </c>
+      <c r="L62" t="s">
+        <v>506</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>484</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>507</v>
+      </c>
+      <c r="X62" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>510</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>511</v>
+      </c>
+      <c r="J63" t="s">
+        <v>512</v>
+      </c>
+      <c r="K63" t="s">
+        <v>513</v>
+      </c>
+      <c r="L63" t="s">
+        <v>514</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>515</v>
+      </c>
+      <c r="O63" t="s">
+        <v>190</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>516</v>
+      </c>
+      <c r="X63" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>519</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>520</v>
+      </c>
+      <c r="J64" t="s">
+        <v>521</v>
+      </c>
+      <c r="K64" t="s">
+        <v>522</v>
+      </c>
+      <c r="L64" t="s">
+        <v>523</v>
+      </c>
+      <c r="M64" t="n">
         <v>4</v>
       </c>
-      <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
-      <c r="V49" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s">
-        <v>406</v>
+      <c r="N64" t="s">
+        <v>524</v>
+      </c>
+      <c r="O64" t="s">
+        <v>149</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>525</v>
+      </c>
+      <c r="X64" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>527</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>528</v>
+      </c>
+      <c r="J65" t="s">
+        <v>529</v>
+      </c>
+      <c r="K65" t="s">
+        <v>530</v>
+      </c>
+      <c r="L65" t="s">
+        <v>531</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>533</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>534</v>
+      </c>
+      <c r="J66" t="s">
+        <v>535</v>
+      </c>
+      <c r="K66" t="s">
+        <v>536</v>
+      </c>
+      <c r="L66" t="s">
+        <v>537</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>538</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>540</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>541</v>
+      </c>
+      <c r="J67" t="s">
+        <v>542</v>
+      </c>
+      <c r="K67" t="s">
+        <v>543</v>
+      </c>
+      <c r="L67" t="s">
+        <v>544</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>538</v>
+      </c>
+      <c r="O67" t="s">
+        <v>149</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>545</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>546</v>
+      </c>
+      <c r="J68" t="s">
+        <v>547</v>
+      </c>
+      <c r="K68" t="s">
+        <v>548</v>
+      </c>
+      <c r="L68" t="s">
+        <v>549</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>550</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>551</v>
+      </c>
+      <c r="J69" t="s">
+        <v>552</v>
+      </c>
+      <c r="K69" t="s">
+        <v>553</v>
+      </c>
+      <c r="L69" t="s">
+        <v>554</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>555</v>
+      </c>
+      <c r="O69" t="s">
+        <v>73</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>557</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>558</v>
+      </c>
+      <c r="J70" t="s">
+        <v>559</v>
+      </c>
+      <c r="K70" t="s">
+        <v>560</v>
+      </c>
+      <c r="L70" t="s">
+        <v>561</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>563</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>564</v>
+      </c>
+      <c r="J71" t="s">
+        <v>565</v>
+      </c>
+      <c r="K71" t="s">
+        <v>566</v>
+      </c>
+      <c r="L71" t="s">
+        <v>567</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>568</v>
+      </c>
+      <c r="O71" t="s">
+        <v>149</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>569</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>570</v>
+      </c>
+      <c r="J72" t="s">
+        <v>571</v>
+      </c>
+      <c r="K72" t="s">
+        <v>572</v>
+      </c>
+      <c r="L72" t="s">
+        <v>573</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>574</v>
+      </c>
+      <c r="O72" t="s">
+        <v>149</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>576</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>577</v>
+      </c>
+      <c r="J73" t="s">
+        <v>578</v>
+      </c>
+      <c r="K73" t="s">
+        <v>579</v>
+      </c>
+      <c r="L73" t="s">
+        <v>580</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>581</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>583</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>584</v>
+      </c>
+      <c r="J74" t="s">
+        <v>585</v>
+      </c>
+      <c r="K74" t="s">
+        <v>586</v>
+      </c>
+      <c r="L74" t="s">
+        <v>587</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>588</v>
+      </c>
+      <c r="O74" t="s">
+        <v>190</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>590</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>591</v>
+      </c>
+      <c r="J75" t="s">
+        <v>592</v>
+      </c>
+      <c r="K75" t="s">
+        <v>593</v>
+      </c>
+      <c r="L75" t="s">
+        <v>594</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>595</v>
+      </c>
+      <c r="O75" t="s">
+        <v>73</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>597</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>598</v>
+      </c>
+      <c r="J76" t="s">
+        <v>599</v>
+      </c>
+      <c r="K76" t="s">
+        <v>600</v>
+      </c>
+      <c r="L76" t="s">
+        <v>601</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>602</v>
+      </c>
+      <c r="O76" t="s">
+        <v>73</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>603</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>604</v>
+      </c>
+      <c r="J77" t="s">
+        <v>605</v>
+      </c>
+      <c r="K77" t="s">
+        <v>606</v>
+      </c>
+      <c r="L77" t="s">
+        <v>607</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>608</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>610</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>611</v>
+      </c>
+      <c r="J78" t="s">
+        <v>612</v>
+      </c>
+      <c r="K78" t="s">
+        <v>613</v>
+      </c>
+      <c r="L78" t="s">
+        <v>614</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>615</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>616</v>
+      </c>
+      <c r="J79" t="s">
+        <v>617</v>
+      </c>
+      <c r="K79" t="s">
+        <v>618</v>
+      </c>
+      <c r="L79" t="s">
+        <v>619</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>620</v>
+      </c>
+      <c r="O79" t="s">
+        <v>190</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>622</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>623</v>
+      </c>
+      <c r="J80" t="s">
+        <v>624</v>
+      </c>
+      <c r="K80" t="s">
+        <v>625</v>
+      </c>
+      <c r="L80" t="s">
+        <v>626</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>627</v>
+      </c>
+      <c r="O80" t="s">
+        <v>73</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>
